--- a/pages/accessrecord_structured/GP Connect Req Cat - Access Record Structured Data v2.1.xlsx
+++ b/pages/accessrecord_structured/GP Connect Req Cat - Access Record Structured Data v2.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hscic365.sharepoint.com/sites/GPConnect/Shared Documents/04 Capabilities/Structured Access Record/Requirements/Working/Current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="8_{C4CCE15D-73F8-478D-89A7-C044948BE9F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{75769182-1F3E-4C23-A43F-E91FFE5556B6}"/>
+  <xr:revisionPtr revIDLastSave="383" documentId="8_{C4CCE15D-73F8-478D-89A7-C044948BE9F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{7F3BBA18-7E11-42EA-84E1-E1253FC5BAB6}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="12">'User Stories - IG'!$A$4:$G$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'User Stories - Immunisations'!$A$4:$G$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'User Stories - Meds'!$A$4:$G$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'User Stories - Problems'!$A$1:$G$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'User Stories - Problems'!$A$1:$G$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'User Stories - Structured'!$A$4:$G$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'User Stories - Uncategorised'!$A$1:$G$7</definedName>
   </definedNames>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1018">
   <si>
     <t>Document filename</t>
   </si>
@@ -2851,20 +2851,6 @@
     <t>- The consumer system may requesting multiple combiniation of Status and Significance in a single call (for example - requesting all Major Active, Minor Active and Major Historic problems)</t>
   </si>
   <si>
-    <t>GPC-STR-PRB06</t>
-  </si>
-  <si>
-    <t>Search by identifier</t>
-  </si>
-  <si>
-    <t>1 - The provider system must return all a patient's problems which are explicitely requested by the consumer system using the problems identifier
-2 - The provider system must be able to process an array of problem identifiers as a single call
-2 - For a problem that is explicitely requested by their identifer other filters are not applied</t>
-  </si>
-  <si>
-    <t>- The consumer system may request one or more problem records by their identifier.</t>
-  </si>
-  <si>
     <t>As a clinician
 I want to see all the associated clincal items linked to the problem
 So that I can filter the information I receive and not be overloaded with information</t>
@@ -2876,24 +2862,6 @@
 3 - Where the clinical area of the associated clinical item is not yet supported, the provider system does not return the  clinical item and includes the warning message “Clinical item not supported by the provider system.”</t>
   </si>
   <si>
-    <t>As a clincian
-I want information on a problem that I have identified as relevant from GP Connect data I have previously retreived
-So I can get additional information on an area I have identified as important to support my clinical decisions</t>
-  </si>
-  <si>
-    <t>As a clincian
-I want information on a medication or medical device that I have identified as relevant from GP Connect data I have previously retreived
-So I can get additional information on an area I have identified as important to support my clinical decisions</t>
-  </si>
-  <si>
-    <t>1 - The provider system must return all a patient's medications and medical devices which are explicitely requested by the consumer system using the medications and medical devices identifier
-2 - The provider system must be able to process an array of medications and medical devices identifiers as a single call
-2 - For a medication or medical device that is explicitely requested by their identifer other filters are not applied</t>
-  </si>
-  <si>
-    <t>GPC-STR-MED13</t>
-  </si>
-  <si>
     <t>GPC-STR-UNC01</t>
   </si>
   <si>
@@ -3773,22 +3741,6 @@
   </si>
   <si>
     <t>- The consumer system may request only The most recent consultations by specifying a specific quantity of most recent records required</t>
-  </si>
-  <si>
-    <t>GPC-STR-ENC06</t>
-  </si>
-  <si>
-    <t>As a clincian
-I want information on a consultation that I have identified as relevant from GP Connect data I have previously retrieved
-So I can get additional information to support my clinical decisions</t>
-  </si>
-  <si>
-    <t>1 - The provider system must return all a patient's consultations which are explicitly requested by the consumer system using the consultation identifier
-2 - The provider system must be able to process an array of consultation identifiers in a single call
-3 - For a consultation that is explicitly requested by its identifier no other search parameters are applied</t>
-  </si>
-  <si>
-    <t>- The consumer system may request one or more consultation records by their identifier</t>
   </si>
   <si>
     <t>GP systems may not record this independent of the procedure code which includes the sequence number</t>
@@ -4595,6 +4547,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4613,12 +4595,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4627,30 +4603,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -5408,7 +5360,7 @@
         <v>43646</v>
       </c>
       <c r="C20" s="139" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="D20" s="140"/>
     </row>
@@ -5511,7 +5463,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -5535,7 +5487,7 @@
         <v>434</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
@@ -5543,7 +5495,7 @@
         <v>436</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="C2" s="146"/>
       <c r="D2" s="146"/>
@@ -5576,41 +5528,41 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A5" s="120" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="C5" s="119" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="D5" s="119" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="G5" s="120"/>
       <c r="H5" s="120"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A6" s="120" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="C6" s="119" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="D6" s="119" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>714</v>
@@ -5620,19 +5572,19 @@
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A7" s="120" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="C7" s="119" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D7" s="119" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="39"/>
@@ -5640,98 +5592,76 @@
     </row>
     <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A8" s="120" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B8" s="119" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C8" s="119" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="D8" s="119" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A9" s="120" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="B9" s="119" t="s">
+        <v>991</v>
+      </c>
+      <c r="C9" s="119" t="s">
+        <v>997</v>
+      </c>
+      <c r="D9" s="119" t="s">
+        <v>998</v>
+      </c>
+      <c r="E9" s="36" t="s">
         <v>999</v>
       </c>
-      <c r="C9" s="119" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D9" s="119" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>1007</v>
-      </c>
       <c r="F9" s="35" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
     </row>
-    <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.35">
-      <c r="A10" s="120" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B10" s="119" t="s">
-        <v>994</v>
-      </c>
-      <c r="C10" s="119" t="s">
-        <v>727</v>
-      </c>
-      <c r="D10" s="119" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-    </row>
-    <row r="11" spans="1:8" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="58"/>
+    <row r="10" spans="1:8" s="127" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="58"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
+      <c r="D12" s="123"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D13" s="123"/>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D14" s="40"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D15" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5777,7 +5707,7 @@
         <v>434</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
@@ -5785,7 +5715,7 @@
         <v>436</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="C2" s="146"/>
       <c r="D2" s="146"/>
@@ -5818,63 +5748,63 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="106" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D5" s="105" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="G5" s="106"/>
       <c r="H5" s="106"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="106" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B6" s="105" t="s">
+        <v>889</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>896</v>
+      </c>
+      <c r="D6" s="105" t="s">
         <v>897</v>
       </c>
-      <c r="C6" s="105" t="s">
-        <v>904</v>
-      </c>
-      <c r="D6" s="105" t="s">
-        <v>905</v>
-      </c>
       <c r="E6" s="35" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="G6" s="106"/>
       <c r="H6" s="106"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A7" s="106" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="B7" s="105" t="s">
+        <v>891</v>
+      </c>
+      <c r="C7" s="105" t="s">
         <v>899</v>
       </c>
-      <c r="C7" s="105" t="s">
-        <v>907</v>
-      </c>
       <c r="D7" s="105" t="s">
+        <v>892</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>900</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>908</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>476</v>
@@ -5884,25 +5814,25 @@
     </row>
     <row r="8" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="106" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="B8" s="105" t="s">
+        <v>893</v>
+      </c>
+      <c r="C8" s="105" t="s">
+        <v>894</v>
+      </c>
+      <c r="D8" s="105" t="s">
         <v>901</v>
       </c>
-      <c r="C8" s="105" t="s">
-        <v>902</v>
-      </c>
-      <c r="D8" s="105" t="s">
-        <v>909</v>
-      </c>
       <c r="E8" s="105" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="F8" s="105" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="G8" s="105" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="H8" s="105"/>
     </row>
@@ -6913,14 +6843,14 @@
       <c r="E14" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="F14" s="153" t="s">
+      <c r="F14" s="154" t="s">
         <v>231</v>
       </c>
-      <c r="G14" s="158"/>
-      <c r="H14" s="154" t="s">
+      <c r="G14" s="155"/>
+      <c r="H14" s="156" t="s">
         <v>207</v>
       </c>
-      <c r="I14" s="153" t="s">
+      <c r="I14" s="154" t="s">
         <v>232</v>
       </c>
       <c r="J14" s="24"/>
@@ -6941,10 +6871,10 @@
       <c r="E15" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="F15" s="153"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
       <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.35">
@@ -6963,10 +6893,10 @@
       <c r="E16" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="F16" s="153"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.35">
@@ -6985,10 +6915,10 @@
       <c r="E17" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F17" s="153"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.35">
@@ -7007,10 +6937,10 @@
       <c r="E18" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="153"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
       <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
@@ -7593,14 +7523,14 @@
       <c r="E40" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="F40" s="153" t="s">
+      <c r="F40" s="154" t="s">
         <v>307</v>
       </c>
-      <c r="G40" s="153"/>
-      <c r="H40" s="154" t="s">
+      <c r="G40" s="154"/>
+      <c r="H40" s="156" t="s">
         <v>292</v>
       </c>
-      <c r="I40" s="153" t="s">
+      <c r="I40" s="154" t="s">
         <v>232</v>
       </c>
       <c r="J40" s="24"/>
@@ -7621,10 +7551,10 @@
       <c r="E41" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
       <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" ht="27" x14ac:dyDescent="0.35">
@@ -7643,10 +7573,10 @@
       <c r="E42" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="154"/>
-      <c r="I42" s="154"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
       <c r="J42" s="24"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -7665,10 +7595,10 @@
       <c r="E43" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="154"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
       <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.35">
@@ -7687,10 +7617,10 @@
       <c r="E44" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="154"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
       <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.35">
@@ -8405,14 +8335,14 @@
       <c r="C72" s="87" t="s">
         <v>642</v>
       </c>
-      <c r="D72" s="159" t="s">
+      <c r="D72" s="147" t="s">
         <v>643</v>
       </c>
-      <c r="E72" s="159" t="s">
+      <c r="E72" s="147" t="s">
         <v>644</v>
       </c>
-      <c r="F72" s="159"/>
-      <c r="G72" s="159"/>
+      <c r="F72" s="147"/>
+      <c r="G72" s="147"/>
       <c r="H72" s="27" t="s">
         <v>634</v>
       </c>
@@ -8434,10 +8364,10 @@
       <c r="C73" s="86" t="s">
         <v>647</v>
       </c>
-      <c r="D73" s="160"/>
-      <c r="E73" s="160"/>
-      <c r="F73" s="160"/>
-      <c r="G73" s="160"/>
+      <c r="D73" s="153"/>
+      <c r="E73" s="153"/>
+      <c r="F73" s="153"/>
+      <c r="G73" s="153"/>
       <c r="H73" s="27" t="s">
         <v>634</v>
       </c>
@@ -8459,10 +8389,10 @@
       <c r="C74" s="86" t="s">
         <v>650</v>
       </c>
-      <c r="D74" s="161"/>
-      <c r="E74" s="161"/>
-      <c r="F74" s="161"/>
-      <c r="G74" s="161"/>
+      <c r="D74" s="148"/>
+      <c r="E74" s="148"/>
+      <c r="F74" s="148"/>
+      <c r="G74" s="148"/>
       <c r="H74" s="27" t="s">
         <v>634</v>
       </c>
@@ -8486,14 +8416,14 @@
       <c r="C75" s="86" t="s">
         <v>653</v>
       </c>
-      <c r="D75" s="159" t="s">
+      <c r="D75" s="147" t="s">
         <v>654</v>
       </c>
-      <c r="E75" s="159" t="s">
+      <c r="E75" s="147" t="s">
         <v>644</v>
       </c>
-      <c r="F75" s="159"/>
-      <c r="G75" s="159"/>
+      <c r="F75" s="147"/>
+      <c r="G75" s="147"/>
       <c r="H75" s="27" t="s">
         <v>634</v>
       </c>
@@ -8517,10 +8447,10 @@
       <c r="C76" s="86" t="s">
         <v>657</v>
       </c>
-      <c r="D76" s="160"/>
-      <c r="E76" s="160"/>
-      <c r="F76" s="160"/>
-      <c r="G76" s="160"/>
+      <c r="D76" s="153"/>
+      <c r="E76" s="153"/>
+      <c r="F76" s="153"/>
+      <c r="G76" s="153"/>
       <c r="H76" s="27" t="s">
         <v>634</v>
       </c>
@@ -8544,10 +8474,10 @@
       <c r="C77" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="D77" s="160"/>
-      <c r="E77" s="160"/>
-      <c r="F77" s="160"/>
-      <c r="G77" s="160"/>
+      <c r="D77" s="153"/>
+      <c r="E77" s="153"/>
+      <c r="F77" s="153"/>
+      <c r="G77" s="153"/>
       <c r="H77" s="27" t="s">
         <v>634</v>
       </c>
@@ -8571,10 +8501,10 @@
       <c r="C78" s="86" t="s">
         <v>663</v>
       </c>
-      <c r="D78" s="161"/>
-      <c r="E78" s="161"/>
-      <c r="F78" s="161"/>
-      <c r="G78" s="161"/>
+      <c r="D78" s="148"/>
+      <c r="E78" s="148"/>
+      <c r="F78" s="148"/>
+      <c r="G78" s="148"/>
       <c r="H78" s="27" t="s">
         <v>634</v>
       </c>
@@ -8598,14 +8528,14 @@
       <c r="C79" s="91" t="s">
         <v>666</v>
       </c>
-      <c r="D79" s="159" t="s">
+      <c r="D79" s="147" t="s">
         <v>667</v>
       </c>
-      <c r="E79" s="162"/>
-      <c r="F79" s="159" t="s">
+      <c r="E79" s="149"/>
+      <c r="F79" s="147" t="s">
         <v>668</v>
       </c>
-      <c r="G79" s="159"/>
+      <c r="G79" s="147"/>
       <c r="H79" s="27" t="s">
         <v>634</v>
       </c>
@@ -8629,10 +8559,10 @@
       <c r="C80" s="91" t="s">
         <v>671</v>
       </c>
-      <c r="D80" s="161"/>
-      <c r="E80" s="163"/>
-      <c r="F80" s="161"/>
-      <c r="G80" s="161"/>
+      <c r="D80" s="148"/>
+      <c r="E80" s="150"/>
+      <c r="F80" s="148"/>
+      <c r="G80" s="148"/>
       <c r="H80" s="27" t="s">
         <v>634</v>
       </c>
@@ -8809,7 +8739,7 @@
       <c r="E86" s="86" t="s">
         <v>627</v>
       </c>
-      <c r="F86" s="164" t="s">
+      <c r="F86" s="151" t="s">
         <v>693</v>
       </c>
       <c r="G86" s="86" t="s">
@@ -8844,7 +8774,7 @@
       <c r="E87" s="86" t="s">
         <v>627</v>
       </c>
-      <c r="F87" s="165"/>
+      <c r="F87" s="152"/>
       <c r="G87" s="86" t="s">
         <v>700</v>
       </c>
@@ -8902,11 +8832,11 @@
         <v>195</v>
       </c>
       <c r="B90" s="96" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C90" s="95"/>
       <c r="D90" s="96" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="E90" s="96"/>
       <c r="F90" s="95"/>
@@ -8921,24 +8851,24 @@
         <v>200</v>
       </c>
       <c r="B91" s="130" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C91" s="129" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="D91" s="129" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="E91" s="130" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="F91" s="129"/>
       <c r="G91" s="129"/>
       <c r="H91" s="98" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="I91" s="117" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="J91" s="100"/>
       <c r="K91" s="115"/>
@@ -8948,28 +8878,28 @@
         <v>200</v>
       </c>
       <c r="B92" s="99" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C92" s="98" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D92" s="99" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="E92" s="98" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="F92" s="98"/>
       <c r="G92" s="98"/>
       <c r="H92" s="98" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="I92" s="98" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="J92" s="98"/>
       <c r="K92" s="99" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.35">
@@ -8977,30 +8907,30 @@
         <v>200</v>
       </c>
       <c r="B93" s="99" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C93" s="98" t="s">
         <v>347</v>
       </c>
       <c r="D93" s="99" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="E93" s="98" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F93" s="98"/>
       <c r="G93" s="136" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="H93" s="98" t="s">
-        <v>755</v>
-      </c>
-      <c r="I93" s="155" t="s">
+        <v>747</v>
+      </c>
+      <c r="I93" s="163" t="s">
         <v>355</v>
       </c>
-      <c r="J93" s="147"/>
-      <c r="K93" s="150" t="s">
-        <v>1024</v>
+      <c r="J93" s="157"/>
+      <c r="K93" s="160" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.35">
@@ -9008,128 +8938,128 @@
         <v>200</v>
       </c>
       <c r="B94" s="99" t="s">
+        <v>742</v>
+      </c>
+      <c r="C94" s="98" t="s">
         <v>750</v>
       </c>
-      <c r="C94" s="98" t="s">
-        <v>758</v>
-      </c>
       <c r="D94" s="99" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="E94" s="98" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="F94" s="98"/>
       <c r="G94" s="136" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="H94" s="98" t="s">
-        <v>755</v>
-      </c>
-      <c r="I94" s="156"/>
-      <c r="J94" s="148"/>
-      <c r="K94" s="151"/>
+        <v>747</v>
+      </c>
+      <c r="I94" s="164"/>
+      <c r="J94" s="158"/>
+      <c r="K94" s="161"/>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.35">
       <c r="A95" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B95" s="99" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C95" s="98" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="D95" s="88" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E95" s="89" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F95" s="99"/>
       <c r="G95" s="136" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="H95" s="98" t="s">
-        <v>755</v>
-      </c>
-      <c r="I95" s="156"/>
-      <c r="J95" s="148"/>
-      <c r="K95" s="151"/>
+        <v>747</v>
+      </c>
+      <c r="I95" s="164"/>
+      <c r="J95" s="158"/>
+      <c r="K95" s="161"/>
     </row>
     <row r="96" spans="1:11" s="101" customFormat="1" ht="45" x14ac:dyDescent="0.35">
       <c r="A96" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B96" s="99" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C96" s="98" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D96" s="99" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="E96" s="98" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="F96" s="99"/>
       <c r="G96" s="136" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="H96" s="98" t="s">
-        <v>755</v>
-      </c>
-      <c r="I96" s="156"/>
-      <c r="J96" s="148"/>
-      <c r="K96" s="151"/>
+        <v>747</v>
+      </c>
+      <c r="I96" s="164"/>
+      <c r="J96" s="158"/>
+      <c r="K96" s="161"/>
     </row>
     <row r="97" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.35">
       <c r="A97" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B97" s="99" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C97" s="98" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="D97" s="99" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="E97" s="98" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="F97" s="102"/>
       <c r="G97" s="98"/>
       <c r="H97" s="98" t="s">
-        <v>755</v>
-      </c>
-      <c r="I97" s="157"/>
-      <c r="J97" s="149"/>
-      <c r="K97" s="152"/>
+        <v>747</v>
+      </c>
+      <c r="I97" s="165"/>
+      <c r="J97" s="159"/>
+      <c r="K97" s="162"/>
     </row>
     <row r="98" spans="1:11" s="101" customFormat="1" ht="45" x14ac:dyDescent="0.35">
       <c r="A98" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B98" s="99" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C98" s="98" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="D98" s="99" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="E98" s="98"/>
       <c r="F98" s="98"/>
       <c r="G98" s="98"/>
       <c r="H98" s="98" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="I98" s="136" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="J98" s="98"/>
       <c r="K98" s="98"/>
@@ -9139,22 +9069,22 @@
         <v>200</v>
       </c>
       <c r="B99" s="99" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C99" s="98" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="D99" s="99" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="E99" s="98"/>
       <c r="F99" s="98"/>
       <c r="G99" s="98"/>
       <c r="H99" s="98" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="I99" s="136" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="J99" s="98"/>
       <c r="K99" s="98"/>
@@ -9164,24 +9094,24 @@
         <v>200</v>
       </c>
       <c r="B100" s="135" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C100" s="134" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="D100" s="135" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="E100" s="134"/>
       <c r="F100" s="135" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="G100" s="134"/>
       <c r="H100" s="98" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="I100" s="137" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="J100" s="134"/>
       <c r="K100" s="134"/>
@@ -9191,24 +9121,24 @@
         <v>200</v>
       </c>
       <c r="B101" s="99" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C101" s="98" t="s">
         <v>674</v>
       </c>
       <c r="D101" s="99" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="E101" s="98" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F101" s="98"/>
       <c r="G101" s="98"/>
       <c r="H101" s="98" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="I101" s="98" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="J101" s="98"/>
       <c r="K101" s="98"/>
@@ -9218,24 +9148,24 @@
         <v>200</v>
       </c>
       <c r="B102" s="99" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C102" s="98" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D102" s="99" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="E102" s="98" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F102" s="98"/>
       <c r="G102" s="98"/>
       <c r="H102" s="98" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="I102" s="98" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="J102" s="98"/>
       <c r="K102" s="98"/>
@@ -9245,28 +9175,28 @@
         <v>200</v>
       </c>
       <c r="B103" s="99" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C103" s="99" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="99" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E103" s="98" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F103" s="99"/>
       <c r="G103" s="98"/>
       <c r="H103" s="98" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="I103" s="98" t="s">
         <v>267</v>
       </c>
       <c r="J103" s="98"/>
       <c r="K103" s="98" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.35">
@@ -9274,24 +9204,24 @@
         <v>200</v>
       </c>
       <c r="B104" s="99" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C104" s="98" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D104" s="99" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E104" s="98" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F104" s="98"/>
       <c r="G104" s="98"/>
       <c r="H104" s="98" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="I104" s="98" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="J104" s="98"/>
       <c r="K104" s="98"/>
@@ -9301,24 +9231,24 @@
         <v>200</v>
       </c>
       <c r="B105" s="99" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C105" s="98" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="D105" s="99" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="E105" s="103" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F105" s="98"/>
       <c r="G105" s="98"/>
       <c r="H105" s="98" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="I105" s="98" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="J105" s="98"/>
       <c r="K105" s="98"/>
@@ -9361,17 +9291,17 @@
         <v>195</v>
       </c>
       <c r="B108" s="107" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C108" s="108"/>
       <c r="D108" s="109" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="E108" s="107"/>
       <c r="F108" s="107"/>
       <c r="G108" s="107"/>
       <c r="H108" s="107" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I108" s="107"/>
       <c r="J108" s="110"/>
@@ -9381,22 +9311,22 @@
         <v>200</v>
       </c>
       <c r="B109" s="111" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C109" s="108" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="D109" s="111" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E109" s="108"/>
       <c r="F109" s="108"/>
       <c r="G109" s="108"/>
       <c r="H109" s="108" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I109" s="108" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="J109" s="29"/>
     </row>
@@ -9405,13 +9335,13 @@
         <v>200</v>
       </c>
       <c r="B110" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C110" s="93" t="s">
         <v>162</v>
       </c>
       <c r="D110" s="93" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="E110" s="93"/>
       <c r="F110" s="93"/>
@@ -9419,7 +9349,7 @@
         <v>201</v>
       </c>
       <c r="H110" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I110" s="93" t="s">
         <v>452</v>
@@ -9431,28 +9361,28 @@
         <v>200</v>
       </c>
       <c r="B111" s="93" t="s">
+        <v>793</v>
+      </c>
+      <c r="C111" s="93" t="s">
+        <v>800</v>
+      </c>
+      <c r="D111" s="93" t="s">
         <v>801</v>
       </c>
-      <c r="C111" s="93" t="s">
-        <v>808</v>
-      </c>
-      <c r="D111" s="93" t="s">
-        <v>809</v>
-      </c>
       <c r="E111" s="93" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="F111" s="93" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="G111" s="93" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="H111" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I111" s="93" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="J111" s="93"/>
     </row>
@@ -9461,28 +9391,28 @@
         <v>200</v>
       </c>
       <c r="B112" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C112" s="93" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="D112" s="93" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="E112" s="93" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="F112" s="93" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="G112" s="93" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="H112" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I112" s="112" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="J112" s="93" t="s">
         <v>72</v>
@@ -9493,28 +9423,28 @@
         <v>200</v>
       </c>
       <c r="B113" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C113" s="93" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="D113" s="93" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="E113" s="93" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="F113" s="93" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="G113" s="113" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="H113" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I113" s="93" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="J113" s="93"/>
     </row>
@@ -9523,24 +9453,24 @@
         <v>200</v>
       </c>
       <c r="B114" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C114" s="93" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="D114" s="93" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="E114" s="93" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="F114" s="93"/>
       <c r="G114" s="93"/>
       <c r="H114" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I114" s="93" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="J114" s="93"/>
     </row>
@@ -9549,28 +9479,28 @@
         <v>200</v>
       </c>
       <c r="B115" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C115" s="93" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="D115" s="93" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E115" s="93" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F115" s="93" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="G115" s="93" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="H115" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I115" s="93" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="J115" s="93"/>
     </row>
@@ -9579,28 +9509,28 @@
         <v>200</v>
       </c>
       <c r="B116" s="49" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C116" s="49" t="s">
+        <v>826</v>
+      </c>
+      <c r="D116" s="49" t="s">
+        <v>827</v>
+      </c>
+      <c r="E116" s="131" t="s">
+        <v>828</v>
+      </c>
+      <c r="F116" s="49" t="s">
+        <v>829</v>
+      </c>
+      <c r="G116" s="113" t="s">
         <v>834</v>
       </c>
-      <c r="D116" s="49" t="s">
-        <v>835</v>
-      </c>
-      <c r="E116" s="131" t="s">
-        <v>836</v>
-      </c>
-      <c r="F116" s="49" t="s">
-        <v>837</v>
-      </c>
-      <c r="G116" s="113" t="s">
-        <v>842</v>
-      </c>
       <c r="H116" s="49" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I116" s="49" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="J116" s="49"/>
     </row>
@@ -9609,28 +9539,28 @@
         <v>200</v>
       </c>
       <c r="B117" s="113" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C117" s="113" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="D117" s="113" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="E117" s="113" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="F117" s="113" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="G117" s="113" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="H117" s="113" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I117" s="113" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="J117" s="113"/>
     </row>
@@ -9639,24 +9569,24 @@
         <v>200</v>
       </c>
       <c r="B118" s="94" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C118" s="94" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="D118" s="94" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="E118" s="93" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="F118" s="94"/>
       <c r="G118" s="94"/>
       <c r="H118" s="94" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I118" s="94" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="J118" s="94"/>
     </row>
@@ -9665,28 +9595,28 @@
         <v>200</v>
       </c>
       <c r="B119" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C119" s="112" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="D119" s="93" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="E119" s="93" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="F119" s="93" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="G119" s="93" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="H119" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I119" s="112" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="J119" s="93"/>
     </row>
@@ -9695,28 +9625,28 @@
         <v>200</v>
       </c>
       <c r="B120" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C120" s="93" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E120" s="93" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="F120" s="93" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="G120" s="113" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="H120" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I120" s="93" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="J120" s="93"/>
     </row>
@@ -9725,24 +9655,24 @@
         <v>200</v>
       </c>
       <c r="B121" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C121" s="93" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="D121" s="93" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="E121" s="93" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="F121" s="93"/>
       <c r="G121" s="93"/>
       <c r="H121" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I121" s="93" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="J121" s="93"/>
     </row>
@@ -9751,26 +9681,26 @@
         <v>200</v>
       </c>
       <c r="B122" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C122" s="93" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D122" s="93" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="E122" s="93" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="F122" s="93"/>
       <c r="G122" s="93" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="H122" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I122" s="93" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="J122" s="93"/>
     </row>
@@ -9779,26 +9709,26 @@
         <v>200</v>
       </c>
       <c r="B123" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C123" s="93" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D123" s="93" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="E123" s="93" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="F123" s="93" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="G123" s="93"/>
       <c r="H123" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I123" s="93" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="J123" s="93" t="s">
         <v>72</v>
@@ -9809,26 +9739,26 @@
         <v>200</v>
       </c>
       <c r="B124" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C124" s="93" t="s">
         <v>215</v>
       </c>
       <c r="D124" s="93" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E124" s="93" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="F124" s="93" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="G124" s="93"/>
       <c r="H124" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I124" s="93" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="J124" s="93" t="s">
         <v>72</v>
@@ -9839,26 +9769,26 @@
         <v>200</v>
       </c>
       <c r="B125" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C125" s="93" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="D125" s="93" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E125" s="93" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="F125" s="93"/>
       <c r="G125" s="93" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="H125" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I125" s="93" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="J125" s="93"/>
     </row>
@@ -9867,26 +9797,26 @@
         <v>200</v>
       </c>
       <c r="B126" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C126" s="93" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D126" s="93" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="E126" s="93" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="F126" s="93" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="G126" s="93"/>
       <c r="H126" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I126" s="93" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="J126" s="93"/>
     </row>
@@ -9895,26 +9825,26 @@
         <v>200</v>
       </c>
       <c r="B127" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C127" s="93" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="D127" s="93" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E127" s="93" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="F127" s="93"/>
       <c r="G127" s="113" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="H127" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I127" s="93" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="J127" s="93"/>
     </row>
@@ -9923,26 +9853,26 @@
         <v>200</v>
       </c>
       <c r="B128" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C128" s="93" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="D128" s="93" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="E128" s="93" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="F128" s="93" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="G128" s="114"/>
       <c r="H128" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I128" s="93" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="J128" s="93"/>
     </row>
@@ -9951,26 +9881,26 @@
         <v>200</v>
       </c>
       <c r="B129" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C129" s="93" t="s">
         <v>268</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E129" s="93" t="s">
         <v>345</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="G129" s="114"/>
       <c r="H129" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I129" s="93" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="J129" s="93"/>
     </row>
@@ -9979,21 +9909,21 @@
         <v>200</v>
       </c>
       <c r="B130" s="93" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C130" s="93" t="s">
         <v>688</v>
       </c>
       <c r="D130" s="93" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E130" s="93" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F130" s="93"/>
       <c r="G130" s="93"/>
       <c r="H130" s="93" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I130" s="93" t="s">
         <v>288</v>
@@ -10042,13 +9972,13 @@
         <v>535</v>
       </c>
       <c r="D133" s="116" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="E133" s="116"/>
       <c r="F133" s="116"/>
       <c r="G133" s="116"/>
       <c r="H133" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I133" s="116"/>
       <c r="J133" s="116"/>
@@ -10061,16 +9991,16 @@
         <v>535</v>
       </c>
       <c r="C134" s="116" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D134" s="116" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="E134" s="116"/>
       <c r="F134" s="116"/>
       <c r="G134" s="116"/>
       <c r="H134" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I134" s="116" t="s">
         <v>452</v>
@@ -10085,19 +10015,19 @@
         <v>535</v>
       </c>
       <c r="C135" s="116" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="D135" s="116" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="E135" s="116"/>
       <c r="F135" s="116"/>
       <c r="G135" s="116"/>
       <c r="H135" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I135" s="116" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="J135" s="116"/>
     </row>
@@ -10109,23 +10039,23 @@
         <v>535</v>
       </c>
       <c r="C136" s="116" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="D136" s="116" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="E136" s="116" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="F136" s="116"/>
       <c r="G136" s="133" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="H136" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I136" s="116" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="J136" s="116"/>
     </row>
@@ -10137,23 +10067,23 @@
         <v>535</v>
       </c>
       <c r="C137" s="116" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="D137" s="116" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="E137" s="116" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="F137" s="116" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="G137" s="116"/>
       <c r="H137" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I137" s="116" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="J137" s="116"/>
     </row>
@@ -10165,23 +10095,23 @@
         <v>535</v>
       </c>
       <c r="C138" s="116" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D138" s="116" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="E138" s="116" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="F138" s="116" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="G138" s="116"/>
       <c r="H138" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I138" s="116" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="J138" s="116"/>
     </row>
@@ -10193,23 +10123,23 @@
         <v>535</v>
       </c>
       <c r="C139" s="116" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="D139" s="116" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="E139" s="116" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="F139" s="116"/>
       <c r="G139" s="133" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="H139" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I139" s="116" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="J139" s="116"/>
     </row>
@@ -10221,23 +10151,23 @@
         <v>535</v>
       </c>
       <c r="C140" s="116" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="D140" s="116" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="E140" s="116" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="F140" s="116"/>
       <c r="G140" s="116" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="H140" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I140" s="116" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="J140" s="116"/>
     </row>
@@ -10249,23 +10179,23 @@
         <v>535</v>
       </c>
       <c r="C141" s="116" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="D141" s="116" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="E141" s="116" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="F141" s="116"/>
       <c r="G141" s="116" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="H141" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I141" s="116" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="J141" s="116"/>
     </row>
@@ -10280,18 +10210,18 @@
         <v>17</v>
       </c>
       <c r="D142" s="116" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="E142" s="116" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="F142" s="116"/>
       <c r="G142" s="116"/>
       <c r="H142" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I142" s="116" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J142" s="116"/>
     </row>
@@ -10303,21 +10233,21 @@
         <v>535</v>
       </c>
       <c r="C143" s="116" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="D143" s="116" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="E143" s="116" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="F143" s="116"/>
       <c r="G143" s="116"/>
       <c r="H143" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I143" s="116" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J143" s="116"/>
     </row>
@@ -10329,21 +10259,21 @@
         <v>535</v>
       </c>
       <c r="C144" s="116" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="D144" s="116" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="E144" s="116" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="F144" s="116"/>
       <c r="G144" s="116"/>
       <c r="H144" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I144" s="116" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="J144" s="116"/>
     </row>
@@ -10355,21 +10285,21 @@
         <v>535</v>
       </c>
       <c r="C145" s="116" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="D145" s="116" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="E145" s="116" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="F145" s="116"/>
       <c r="G145" s="116"/>
       <c r="H145" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I145" s="116" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J145" s="116"/>
     </row>
@@ -10384,19 +10314,19 @@
         <v>9</v>
       </c>
       <c r="D146" s="116" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="E146" s="116" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F146" s="116" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="G146" s="116" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="H146" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I146" s="116" t="s">
         <v>267</v>
@@ -10414,17 +10344,17 @@
         <v>70</v>
       </c>
       <c r="D147" s="116" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="E147" s="116" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="F147" s="116" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="G147" s="116"/>
       <c r="H147" s="116" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="I147" s="116"/>
       <c r="J147" s="116"/>
@@ -10437,25 +10367,25 @@
         <v>535</v>
       </c>
       <c r="C148" s="116" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="D148" s="116" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="E148" s="116" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="F148" s="116" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="G148" s="116" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="H148" s="116" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="I148" s="116" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="J148" s="116"/>
     </row>
@@ -10467,25 +10397,25 @@
         <v>535</v>
       </c>
       <c r="C149" s="116" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="D149" s="116" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="E149" s="116" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F149" s="116" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="G149" s="116" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="H149" s="116" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="I149" s="116" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="J149" s="116"/>
     </row>
@@ -10497,16 +10427,16 @@
         <v>535</v>
       </c>
       <c r="C150" s="116" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="D150" s="116" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="E150" s="116" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F150" s="116" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="G150" s="116"/>
       <c r="H150" s="116"/>
@@ -10524,29 +10454,36 @@
         <v>328</v>
       </c>
       <c r="D151" s="116" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="E151" s="116" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="F151" s="116"/>
       <c r="G151" s="116"/>
       <c r="H151" s="116" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I151" s="116" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="J151" s="116"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:J66" xr:uid="{74FD2881-F666-44D9-993B-3E3CA96DC841}"/>
   <mergeCells count="25">
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="J93:J97"/>
+    <mergeCell ref="K93:K97"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="H40:H44"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="I93:I97"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
     <mergeCell ref="D72:D74"/>
     <mergeCell ref="E72:E74"/>
     <mergeCell ref="F72:F74"/>
@@ -10555,18 +10492,11 @@
     <mergeCell ref="E75:E78"/>
     <mergeCell ref="F75:F78"/>
     <mergeCell ref="G75:G78"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="J93:J97"/>
-    <mergeCell ref="K93:K97"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="H40:H44"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="I93:I97"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="F86:F87"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10987,7 +10917,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -12230,7 +12160,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="77" t="s">
         <v>582</v>
       </c>
@@ -13021,10 +12951,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -13359,36 +13289,14 @@
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="87" t="s">
-        <v>735</v>
-      </c>
-      <c r="B17" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>727</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>733</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>729</v>
-      </c>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="40"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" s="40"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" s="40"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13567,7 +13475,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -13707,10 +13615,10 @@
         <v>721</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>719</v>
@@ -13726,7 +13634,7 @@
         <v>143</v>
       </c>
       <c r="C9" s="86" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="D9" s="86" t="s">
         <v>723</v>
@@ -13739,28 +13647,6 @@
       </c>
       <c r="G9" s="87"/>
       <c r="H9" s="87"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="87" t="s">
-        <v>726</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>705</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>727</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>732</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>728</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>729</v>
-      </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13807,7 +13693,7 @@
         <v>434</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.649999999999999" x14ac:dyDescent="0.5">
@@ -13815,7 +13701,7 @@
         <v>436</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="C2" s="146"/>
       <c r="D2" s="146"/>
@@ -13848,41 +13734,41 @@
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A5" s="89" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="G5" s="89"/>
       <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A6" s="89" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B6" s="88" t="s">
+        <v>729</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>735</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>736</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>737</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>743</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>744</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>745</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>714</v>
@@ -13892,20 +13778,20 @@
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.35">
       <c r="A7" s="89" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B7" s="88"/>
       <c r="C7" s="88" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="G7" s="88"/>
       <c r="H7" s="89"/>
@@ -13930,15 +13816,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <InformationAudience xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">NHS Digital</InformationAudience>
@@ -13982,158 +13859,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>NHSD Portfolio Document (8 years)</p:Name>
-  <p:Description/>
-  <p:Statement>This document implements 8 years retention from Authored Date</p:Statement>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7|-2054357789" UniqueId="c9a81329-e124-4cbc-9b7a-8099d020f266">
-      <p:Name>Retention</p:Name>
-      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
-      <p:CustomData>
-        <Schedules nextStageId="3">
-          <Schedule type="Default">
-            <stages>
-              <data stageId="1">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>8</number>
-                  <property>AuthoredDate</property>
-                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.Skip"/>
-              </data>
-              <data stageId="2">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>22</number>
-                  <property>AuthoredDate</property>
-                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.MoveToRecycleBin"/>
-              </data>
-            </stages>
-          </Schedule>
-        </Schedules>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>101</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>102</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>103</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>104</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10009</Type>
-    <SequenceNumber>105</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="bb72b7f4-c981-47a4-a26e-043e4b78ebf3" ContentTypeId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="NHSD Portfolio Document (8 years)" ma:contentTypeID="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7004F50C1BCCACB1449A1E6F21B442043ED" ma:contentTypeVersion="4" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="a1c15b439565651e633ab854196fb81e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xmlns:ns3="fd99328b-ad0f-4a07-bc01-42c4f74e2fcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60d1fb537fdff0e2362399e67e746ed8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14436,57 +14162,185 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="bb72b7f4-c981-47a4-a26e-043e4b78ebf3" ContentTypeId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>101</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>102</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>103</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>104</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10009</Type>
+    <SequenceNumber>105</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>NHSD Portfolio Document (8 years)</p:Name>
+  <p:Description/>
+  <p:Statement>This document implements 8 years retention from Authored Date</p:Statement>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7|-2054357789" UniqueId="c9a81329-e124-4cbc-9b7a-8099d020f266">
+      <p:Name>Retention</p:Name>
+      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
+      <p:CustomData>
+        <Schedules nextStageId="3">
+          <Schedule type="Default">
+            <stages>
+              <data stageId="1">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>8</number>
+                  <property>AuthoredDate</property>
+                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.Skip"/>
+              </data>
+              <data stageId="2">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>22</number>
+                  <property>AuthoredDate</property>
+                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.MoveToRecycleBin"/>
+              </data>
+            </stages>
+          </Schedule>
+        </Schedules>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC01061-A2CF-4191-B67F-29A55016463D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7F8168-C2C9-4934-8827-829F56CA9998}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5668c8bc-6c30-45e9-80ca-5109d4270dfd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fd99328b-ad0f-4a07-bc01-42c4f74e2fcd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7F8168-C2C9-4934-8827-829F56CA9998}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="5668c8bc-6c30-45e9-80ca-5109d4270dfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fd99328b-ad0f-4a07-bc01-42c4f74e2fcd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19405931-A81E-40EA-8A05-F46780F42396}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA4677E9-5489-40B5-9440-41D9009D5C13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A6D99D-D28F-4F51-9CF3-0F2D2247AAAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{135498CA-7A93-4C61-9FF7-49B80243C8F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14504,4 +14358,36 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC01061-A2CF-4191-B67F-29A55016463D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A6D99D-D28F-4F51-9CF3-0F2D2247AAAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA4677E9-5489-40B5-9440-41D9009D5C13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19405931-A81E-40EA-8A05-F46780F42396}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/pages/accessrecord_structured/GP Connect Req Cat - Access Record Structured Data v2.1.xlsx
+++ b/pages/accessrecord_structured/GP Connect Req Cat - Access Record Structured Data v2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hscic365.sharepoint.com/sites/GPConnect/Shared Documents/04 Capabilities/Structured Access Record/Requirements/Working/Current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mist1\OneDrive - NHS Digital\Documents\GP Connect\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="383" documentId="8_{C4CCE15D-73F8-478D-89A7-C044948BE9F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{7F3BBA18-7E11-42EA-84E1-E1253FC5BAB6}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="8_{C4CCE15D-73F8-478D-89A7-C044948BE9F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{CFABEC23-5C2B-48AB-9461-EEC8C62AB043}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="-120" windowWidth="27750" windowHeight="16440" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Management" sheetId="8" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1015">
   <si>
     <t>Document filename</t>
   </si>
@@ -2222,9 +2222,6 @@
     <t>Care Plan</t>
   </si>
   <si>
-    <t>Condition</t>
-  </si>
-  <si>
     <t>Consultation</t>
   </si>
   <si>
@@ -2237,9 +2234,6 @@
     <t>Document</t>
   </si>
   <si>
-    <t>Family History</t>
-  </si>
-  <si>
     <t>GP Summary</t>
   </si>
   <si>
@@ -2252,15 +2246,9 @@
     <t>Medication and Medical Device</t>
   </si>
   <si>
-    <t>Pathology / Test Result</t>
-  </si>
-  <si>
     <t>Problem</t>
   </si>
   <si>
-    <t>Procedure</t>
-  </si>
-  <si>
     <t>Referral</t>
   </si>
   <si>
@@ -2508,10 +2496,6 @@
   </si>
   <si>
     <t>Population</t>
-  </si>
-  <si>
-    <t>Problem is a concept supported by all the GP Clinical Systems that allows a clinician to highlight an item in the clinical record as important to the care and treatment of the patient. As well as the highlighted item of data the problem is also linked to any other items of data in the clinical record that a clinician has identified as relevant to the problem (for example test results, medication).
-Identified in GP practice clinical systems as items identified as problems in the data model</t>
   </si>
   <si>
     <t>Identifies if the problem is active or inactive</t>
@@ -3631,9 +3615,6 @@
     <t>The other non-clinician attendees accompanying the patient for the consultation (not including the patient) e.g. translator, parent, guardian, carer, POA, etc.</t>
   </si>
   <si>
-    <t>Clinical items which are recorded against the consultation record. This is any item in the clinical record that a clinician has created from the consultation (or linked to the consultation e.g. a problem link). Examples include: problems, allergies, medication, test results, procedures, etc.</t>
-  </si>
-  <si>
     <t>Associated Clinical Item(s) - Coded</t>
   </si>
   <si>
@@ -3795,6 +3776,16 @@
   </si>
   <si>
     <t>Search by date</t>
+  </si>
+  <si>
+    <t>Investigation</t>
+  </si>
+  <si>
+    <t>Problem is a concept supported by all the GP Clinical Systems that allows a clinician to highlight an item in the clinical record as important to the care and treatment of the patient. As well as the highlighted item of data the problem is also linked to any other items of data in the clinical record that a clinician has identified as relevant to the problem (for example investigations, medication).
+Identified in GP practice clinical systems as items identified as problems in the data model</t>
+  </si>
+  <si>
+    <t>Clinical items which are recorded against the consultation record. This is any item in the clinical record that a clinician has created from the consultation (or linked to the consultation e.g. a problem link). Examples include: problems, allergies, medication, investigations, procedures, etc.</t>
   </si>
 </sst>
 </file>
@@ -5126,13 +5117,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="25.75" style="10" customWidth="1"/>
     <col min="5" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5142,7 +5133,7 @@
       <c r="C1" s="138"/>
       <c r="D1" s="138"/>
     </row>
-    <row r="2" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -5156,7 +5147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -5164,7 +5155,7 @@
       <c r="C3" s="138"/>
       <c r="D3" s="138"/>
     </row>
-    <row r="4" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -5178,7 +5169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -5192,7 +5183,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -5206,13 +5197,13 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="141" t="s">
         <v>16</v>
       </c>
@@ -5220,7 +5211,7 @@
       <c r="C8" s="142"/>
       <c r="D8" s="143"/>
     </row>
-    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -5232,7 +5223,7 @@
       </c>
       <c r="D9" s="143"/>
     </row>
-    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>0.2</v>
       </c>
@@ -5244,7 +5235,7 @@
       </c>
       <c r="D10" s="140"/>
     </row>
-    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>0.3</v>
       </c>
@@ -5256,7 +5247,7 @@
       </c>
       <c r="D11" s="140"/>
     </row>
-    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>0.5</v>
       </c>
@@ -5268,7 +5259,7 @@
       </c>
       <c r="D12" s="140"/>
     </row>
-    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>0.6</v>
       </c>
@@ -5280,7 +5271,7 @@
       </c>
       <c r="D13" s="140"/>
     </row>
-    <row r="14" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
@@ -5292,7 +5283,7 @@
       </c>
       <c r="D14" s="140"/>
     </row>
-    <row r="15" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>1.1000000000000001</v>
       </c>
@@ -5304,7 +5295,7 @@
       </c>
       <c r="D15" s="140"/>
     </row>
-    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>1.2</v>
       </c>
@@ -5316,7 +5307,7 @@
       </c>
       <c r="D16" s="140"/>
     </row>
-    <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>1.3</v>
       </c>
@@ -5328,7 +5319,7 @@
       </c>
       <c r="D17" s="140"/>
     </row>
-    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>1.4</v>
       </c>
@@ -5340,7 +5331,7 @@
       </c>
       <c r="D18" s="140"/>
     </row>
-    <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="65">
         <v>2</v>
       </c>
@@ -5352,7 +5343,7 @@
       </c>
       <c r="D19" s="140"/>
     </row>
-    <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="65">
         <v>2.1</v>
       </c>
@@ -5360,17 +5351,17 @@
         <v>43646</v>
       </c>
       <c r="C20" s="139" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="D20" s="140"/>
     </row>
-    <row r="21" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="141" t="s">
         <v>25</v>
       </c>
@@ -5378,7 +5369,7 @@
       <c r="C22" s="142"/>
       <c r="D22" s="143"/>
     </row>
-    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
@@ -5392,43 +5383,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -5470,7 +5461,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" style="118" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="118" customWidth="1"/>
@@ -5482,25 +5473,25 @@
     <col min="9" max="16384" width="9" style="118"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>434</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="C2" s="146"/>
       <c r="D2" s="146"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>109</v>
       </c>
@@ -5526,115 +5517,115 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="120" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C5" s="119" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="D5" s="119" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="G5" s="120"/>
       <c r="H5" s="120"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="120" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="C6" s="119" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D6" s="119" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
     </row>
-    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="120" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="C7" s="119" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D7" s="119" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="120" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="B8" s="119" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="C8" s="119" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="D8" s="119" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
     </row>
-    <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="120" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="B9" s="119" t="s">
+        <v>985</v>
+      </c>
+      <c r="C9" s="119" t="s">
         <v>991</v>
       </c>
-      <c r="C9" s="119" t="s">
-        <v>997</v>
-      </c>
       <c r="D9" s="119" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
     </row>
-    <row r="10" spans="1:8" s="127" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="58"/>
       <c r="B10" s="58"/>
       <c r="C10" s="124"/>
@@ -5644,7 +5635,7 @@
       <c r="G10" s="124"/>
       <c r="H10" s="58"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -5654,13 +5645,13 @@
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D12" s="123"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D13" s="40"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D14" s="40"/>
     </row>
   </sheetData>
@@ -5690,7 +5681,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" style="104" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="104" customWidth="1"/>
@@ -5702,25 +5693,25 @@
     <col min="9" max="16384" width="9" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>434</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C2" s="146"/>
       <c r="D2" s="146"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>109</v>
       </c>
@@ -5746,65 +5737,65 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="106" t="s">
+        <v>876</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>877</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>878</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>879</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>880</v>
+      </c>
+      <c r="F5" s="35" t="s">
         <v>881</v>
-      </c>
-      <c r="B5" s="105" t="s">
-        <v>882</v>
-      </c>
-      <c r="C5" s="105" t="s">
-        <v>883</v>
-      </c>
-      <c r="D5" s="105" t="s">
-        <v>884</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>885</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>886</v>
       </c>
       <c r="G5" s="106"/>
       <c r="H5" s="106"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="106" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="D6" s="105" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G6" s="106"/>
       <c r="H6" s="106"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="106" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D7" s="105" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>476</v>
@@ -5812,34 +5803,34 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="106" t="s">
+        <v>885</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>888</v>
+      </c>
+      <c r="C8" s="105" t="s">
+        <v>889</v>
+      </c>
+      <c r="D8" s="105" t="s">
+        <v>896</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F8" s="105" t="s">
         <v>890</v>
       </c>
-      <c r="B8" s="105" t="s">
-        <v>893</v>
-      </c>
-      <c r="C8" s="105" t="s">
-        <v>894</v>
-      </c>
-      <c r="D8" s="105" t="s">
-        <v>901</v>
-      </c>
-      <c r="E8" s="105" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F8" s="105" t="s">
-        <v>895</v>
-      </c>
       <c r="G8" s="105" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="H8" s="105"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D9" s="40"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="40"/>
     </row>
   </sheetData>
@@ -5870,7 +5861,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
@@ -5881,7 +5872,7 @@
     <col min="8" max="8" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>434</v>
       </c>
@@ -5889,7 +5880,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>436</v>
       </c>
@@ -5899,7 +5890,7 @@
       <c r="C2" s="144"/>
       <c r="D2" s="144"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>109</v>
       </c>
@@ -5925,7 +5916,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
         <v>421</v>
       </c>
@@ -5947,7 +5938,7 @@
       </c>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:8" ht="305.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="305.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>422</v>
       </c>
@@ -5969,7 +5960,7 @@
       </c>
       <c r="H6" s="48"/>
     </row>
-    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
         <v>423</v>
       </c>
@@ -5991,7 +5982,7 @@
       </c>
       <c r="H7" s="48"/>
     </row>
-    <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
         <v>424</v>
       </c>
@@ -6013,7 +6004,7 @@
       </c>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
         <v>425</v>
       </c>
@@ -6033,7 +6024,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="47"/>
     </row>
-    <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
         <v>426</v>
       </c>
@@ -6053,7 +6044,7 @@
       <c r="G10" s="52"/>
       <c r="H10" s="48"/>
     </row>
-    <row r="11" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>427</v>
       </c>
@@ -6075,7 +6066,7 @@
       </c>
       <c r="H11" s="48"/>
     </row>
-    <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="47" t="s">
         <v>428</v>
       </c>
@@ -6095,7 +6086,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="47" t="s">
         <v>429</v>
       </c>
@@ -6115,7 +6106,7 @@
       <c r="G13" s="53"/>
       <c r="H13" s="48"/>
     </row>
-    <row r="14" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A14" s="47" t="s">
         <v>430</v>
       </c>
@@ -6137,7 +6128,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
         <v>431</v>
       </c>
@@ -6159,7 +6150,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
         <v>432</v>
       </c>
@@ -6181,7 +6172,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
         <v>433</v>
       </c>
@@ -6228,7 +6219,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -6239,7 +6230,7 @@
     <col min="8" max="8" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>434</v>
       </c>
@@ -6247,7 +6238,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>436</v>
       </c>
@@ -6257,7 +6248,7 @@
       <c r="C2" s="144"/>
       <c r="D2" s="144"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>109</v>
       </c>
@@ -6283,7 +6274,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>382</v>
       </c>
@@ -6305,7 +6296,7 @@
       </c>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>383</v>
       </c>
@@ -6327,7 +6318,7 @@
       </c>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:8" ht="108" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
         <v>384</v>
       </c>
@@ -6347,7 +6338,7 @@
       <c r="G7" s="33"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
         <v>385</v>
       </c>
@@ -6367,7 +6358,7 @@
       <c r="G8" s="33"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" ht="162" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="171" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
         <v>386</v>
       </c>
@@ -6387,7 +6378,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>387</v>
       </c>
@@ -6407,7 +6398,7 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>388</v>
       </c>
@@ -6429,7 +6420,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
         <v>389</v>
       </c>
@@ -6451,7 +6442,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
         <v>390</v>
       </c>
@@ -6473,7 +6464,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
         <v>391</v>
       </c>
@@ -6519,7 +6510,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
@@ -6535,7 +6526,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>434</v>
       </c>
@@ -6544,7 +6535,7 @@
       </c>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:10" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>436</v>
       </c>
@@ -6554,10 +6545,10 @@
       <c r="C2" s="144"/>
       <c r="D2" s="144"/>
     </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>187</v>
       </c>
@@ -6589,7 +6580,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="79" t="s">
         <v>195</v>
       </c>
@@ -6611,7 +6602,7 @@
       <c r="I5" s="79"/>
       <c r="J5" s="81"/>
     </row>
-    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>200</v>
       </c>
@@ -6639,7 +6630,7 @@
       </c>
       <c r="J6" s="29"/>
     </row>
-    <row r="7" spans="1:10" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>200</v>
       </c>
@@ -6669,7 +6660,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>200</v>
       </c>
@@ -6695,7 +6686,7 @@
       </c>
       <c r="J8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>200</v>
       </c>
@@ -6721,7 +6712,7 @@
       </c>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>200</v>
       </c>
@@ -6747,7 +6738,7 @@
       </c>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>200</v>
       </c>
@@ -6773,7 +6764,7 @@
       </c>
       <c r="J11" s="24"/>
     </row>
-    <row r="12" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>200</v>
       </c>
@@ -6799,7 +6790,7 @@
       </c>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>200</v>
       </c>
@@ -6827,7 +6818,7 @@
       </c>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>200</v>
       </c>
@@ -6855,7 +6846,7 @@
       </c>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>200</v>
       </c>
@@ -6877,7 +6868,7 @@
       <c r="I15" s="156"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>200</v>
       </c>
@@ -6899,7 +6890,7 @@
       <c r="I16" s="156"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>200</v>
       </c>
@@ -6921,7 +6912,7 @@
       <c r="I17" s="156"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>200</v>
       </c>
@@ -6943,7 +6934,7 @@
       <c r="I18" s="156"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>200</v>
       </c>
@@ -6971,7 +6962,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>200</v>
       </c>
@@ -6999,7 +6990,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>200</v>
       </c>
@@ -7027,7 +7018,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>200</v>
       </c>
@@ -7054,7 +7045,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="135" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>200</v>
       </c>
@@ -7086,7 +7077,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="99.75" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>200</v>
       </c>
@@ -7114,7 +7105,7 @@
       </c>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>200</v>
       </c>
@@ -7140,7 +7131,7 @@
       </c>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>200</v>
       </c>
@@ -7166,7 +7157,7 @@
       </c>
       <c r="J26" s="24"/>
     </row>
-    <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>200</v>
       </c>
@@ -7194,7 +7185,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>200</v>
       </c>
@@ -7222,7 +7213,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="42.75" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>200</v>
       </c>
@@ -7248,7 +7239,7 @@
       </c>
       <c r="J29" s="24"/>
     </row>
-    <row r="30" spans="1:10" ht="42.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>200</v>
       </c>
@@ -7274,7 +7265,7 @@
       </c>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>200</v>
       </c>
@@ -7300,7 +7291,7 @@
       </c>
       <c r="J31" s="24"/>
     </row>
-    <row r="32" spans="1:10" ht="81" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A32" s="82" t="s">
         <v>195</v>
       </c>
@@ -7322,7 +7313,7 @@
       <c r="I32" s="82"/>
       <c r="J32" s="84"/>
     </row>
-    <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>200</v>
       </c>
@@ -7349,7 +7340,7 @@
       </c>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="1:10" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>200</v>
       </c>
@@ -7375,7 +7366,7 @@
       </c>
       <c r="J34" s="24"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>200</v>
       </c>
@@ -7401,7 +7392,7 @@
       </c>
       <c r="J35" s="24"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>200</v>
       </c>
@@ -7427,7 +7418,7 @@
       </c>
       <c r="J36" s="24"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>200</v>
       </c>
@@ -7453,7 +7444,7 @@
       </c>
       <c r="J37" s="24"/>
     </row>
-    <row r="38" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>200</v>
       </c>
@@ -7479,7 +7470,7 @@
       </c>
       <c r="J38" s="24"/>
     </row>
-    <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>200</v>
       </c>
@@ -7507,7 +7498,7 @@
       </c>
       <c r="J39" s="24"/>
     </row>
-    <row r="40" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>200</v>
       </c>
@@ -7535,7 +7526,7 @@
       </c>
       <c r="J40" s="24"/>
     </row>
-    <row r="41" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>200</v>
       </c>
@@ -7557,7 +7548,7 @@
       <c r="I41" s="156"/>
       <c r="J41" s="24"/>
     </row>
-    <row r="42" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>200</v>
       </c>
@@ -7579,7 +7570,7 @@
       <c r="I42" s="156"/>
       <c r="J42" s="24"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
         <v>200</v>
       </c>
@@ -7601,7 +7592,7 @@
       <c r="I43" s="156"/>
       <c r="J43" s="24"/>
     </row>
-    <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>200</v>
       </c>
@@ -7623,7 +7614,7 @@
       <c r="I44" s="156"/>
       <c r="J44" s="24"/>
     </row>
-    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>200</v>
       </c>
@@ -7651,7 +7642,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>200</v>
       </c>
@@ -7677,7 +7668,7 @@
       </c>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="1:10" ht="99.75" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
         <v>200</v>
       </c>
@@ -7705,7 +7696,7 @@
       </c>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>200</v>
       </c>
@@ -7731,7 +7722,7 @@
       </c>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
         <v>200</v>
       </c>
@@ -7757,7 +7748,7 @@
       </c>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" s="58" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" s="58" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="55"/>
       <c r="B50" s="56"/>
       <c r="C50" s="56"/>
@@ -7769,7 +7760,7 @@
       <c r="I50" s="56"/>
       <c r="J50" s="57"/>
     </row>
-    <row r="51" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>187</v>
       </c>
@@ -7801,7 +7792,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A52" s="82" t="s">
         <v>195</v>
       </c>
@@ -7823,7 +7814,7 @@
       <c r="I52" s="82"/>
       <c r="J52" s="84"/>
     </row>
-    <row r="53" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
         <v>200</v>
       </c>
@@ -7850,7 +7841,7 @@
       </c>
       <c r="J53" s="29"/>
     </row>
-    <row r="54" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
         <v>200</v>
       </c>
@@ -7876,7 +7867,7 @@
       </c>
       <c r="J54" s="24"/>
     </row>
-    <row r="55" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>200</v>
       </c>
@@ -7902,7 +7893,7 @@
       </c>
       <c r="J55" s="24"/>
     </row>
-    <row r="56" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
         <v>200</v>
       </c>
@@ -7930,7 +7921,7 @@
       </c>
       <c r="J56" s="24"/>
     </row>
-    <row r="57" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
         <v>200</v>
       </c>
@@ -7956,7 +7947,7 @@
       </c>
       <c r="J57" s="24"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
         <v>200</v>
       </c>
@@ -7982,7 +7973,7 @@
       </c>
       <c r="J58" s="24"/>
     </row>
-    <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
         <v>200</v>
       </c>
@@ -8008,7 +7999,7 @@
       </c>
       <c r="J59" s="24"/>
     </row>
-    <row r="60" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="22" t="s">
         <v>200</v>
       </c>
@@ -8034,7 +8025,7 @@
       </c>
       <c r="J60" s="24"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
         <v>200</v>
       </c>
@@ -8060,7 +8051,7 @@
       </c>
       <c r="J61" s="24"/>
     </row>
-    <row r="62" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
         <v>200</v>
       </c>
@@ -8085,7 +8076,7 @@
       </c>
       <c r="J62" s="24"/>
     </row>
-    <row r="63" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
         <v>200</v>
       </c>
@@ -8113,7 +8104,7 @@
       </c>
       <c r="J63" s="24"/>
     </row>
-    <row r="64" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
         <v>200</v>
       </c>
@@ -8139,7 +8130,7 @@
       </c>
       <c r="J64" s="24"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
         <v>200</v>
       </c>
@@ -8165,7 +8156,7 @@
       </c>
       <c r="J65" s="24"/>
     </row>
-    <row r="66" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
         <v>200</v>
       </c>
@@ -8193,7 +8184,7 @@
       </c>
       <c r="J66" s="24"/>
     </row>
-    <row r="67" spans="1:11" s="58" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="58" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="55"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -8205,7 +8196,7 @@
       <c r="I67" s="56"/>
       <c r="J67" s="57"/>
     </row>
-    <row r="68" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>187</v>
       </c>
@@ -8213,7 +8204,7 @@
         <v>195</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D68" s="30" t="s">
         <v>190</v>
@@ -8237,19 +8228,19 @@
         <v>194</v>
       </c>
       <c r="K68" s="30" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="108" x14ac:dyDescent="0.35">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="114" x14ac:dyDescent="0.2">
       <c r="A69" s="79" t="s">
         <v>195</v>
       </c>
       <c r="B69" s="82" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C69" s="82"/>
       <c r="D69" s="83" t="s">
-        <v>630</v>
+        <v>1013</v>
       </c>
       <c r="E69" s="83"/>
       <c r="F69" s="80"/>
@@ -8259,28 +8250,28 @@
       <c r="J69" s="81"/>
       <c r="K69" s="79"/>
     </row>
-    <row r="70" spans="1:11" ht="27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
         <v>200</v>
       </c>
       <c r="B70" s="86" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C70" s="87" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="86" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E70" s="86" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F70" s="27"/>
       <c r="G70" s="27" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="H70" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I70" s="27" t="s">
         <v>342</v>
@@ -8289,510 +8280,510 @@
         <v>72</v>
       </c>
       <c r="K70" s="28" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="54" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
         <v>200</v>
       </c>
       <c r="B71" s="86" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C71" s="87" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D71" s="86" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E71" s="86" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="28" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J71" s="29" t="s">
         <v>72</v>
       </c>
       <c r="K71" s="28" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="54" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A72" s="90" t="s">
         <v>200</v>
       </c>
       <c r="B72" s="91" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C72" s="87" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D72" s="147" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E72" s="147" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F72" s="147"/>
       <c r="G72" s="147"/>
       <c r="H72" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I72" s="27" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="J72" s="29"/>
       <c r="K72" s="28" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="27" x14ac:dyDescent="0.35">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="90" t="s">
         <v>200</v>
       </c>
       <c r="B73" s="91" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C73" s="86" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D73" s="153"/>
       <c r="E73" s="153"/>
       <c r="F73" s="153"/>
       <c r="G73" s="153"/>
       <c r="H73" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I73" s="27" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="J73" s="29"/>
       <c r="K73" s="28" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="108" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="114" x14ac:dyDescent="0.2">
       <c r="A74" s="90" t="s">
         <v>200</v>
       </c>
       <c r="B74" s="91" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C74" s="86" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D74" s="148"/>
       <c r="E74" s="148"/>
       <c r="F74" s="148"/>
       <c r="G74" s="148"/>
       <c r="H74" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I74" s="27" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="J74" s="29" t="s">
         <v>72</v>
       </c>
       <c r="K74" s="28" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="54" x14ac:dyDescent="0.35">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A75" s="90" t="s">
         <v>200</v>
       </c>
       <c r="B75" s="91" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C75" s="86" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D75" s="147" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E75" s="147" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F75" s="147"/>
       <c r="G75" s="147"/>
       <c r="H75" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="J75" s="29" t="s">
         <v>72</v>
       </c>
       <c r="K75" s="28" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="27" x14ac:dyDescent="0.35">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="90" t="s">
         <v>200</v>
       </c>
       <c r="B76" s="91" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C76" s="86" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D76" s="153"/>
       <c r="E76" s="153"/>
       <c r="F76" s="153"/>
       <c r="G76" s="153"/>
       <c r="H76" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I76" s="27" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="J76" s="29" t="s">
         <v>72</v>
       </c>
       <c r="K76" s="28" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="108" x14ac:dyDescent="0.35">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="114" x14ac:dyDescent="0.2">
       <c r="A77" s="90" t="s">
         <v>200</v>
       </c>
       <c r="B77" s="91" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C77" s="86" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D77" s="153"/>
       <c r="E77" s="153"/>
       <c r="F77" s="153"/>
       <c r="G77" s="153"/>
       <c r="H77" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I77" s="27" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="J77" s="29" t="s">
         <v>72</v>
       </c>
       <c r="K77" s="28" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="90" t="s">
         <v>200</v>
       </c>
       <c r="B78" s="91" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C78" s="86" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D78" s="148"/>
       <c r="E78" s="148"/>
       <c r="F78" s="148"/>
       <c r="G78" s="148"/>
       <c r="H78" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I78" s="27" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="J78" s="29" t="s">
         <v>72</v>
       </c>
       <c r="K78" s="28" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A79" s="87" t="s">
         <v>200</v>
       </c>
       <c r="B79" s="91" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C79" s="91" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D79" s="147" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E79" s="149"/>
       <c r="F79" s="147" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G79" s="147"/>
       <c r="H79" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I79" s="27" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="J79" s="29" t="s">
         <v>72</v>
       </c>
       <c r="K79" s="28" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="87" t="s">
         <v>200</v>
       </c>
       <c r="B80" s="91" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C80" s="91" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D80" s="148"/>
       <c r="E80" s="150"/>
       <c r="F80" s="148"/>
       <c r="G80" s="148"/>
       <c r="H80" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I80" s="27" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="J80" s="29" t="s">
         <v>72</v>
       </c>
       <c r="K80" s="28" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="87" t="s">
         <v>200</v>
       </c>
       <c r="B81" s="86" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C81" s="87" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D81" s="86" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E81" s="86" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F81" s="87"/>
       <c r="G81" s="87"/>
       <c r="H81" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I81" s="27" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="J81" s="29"/>
       <c r="K81" s="28" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A82" s="27" t="s">
         <v>200</v>
       </c>
       <c r="B82" s="86" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D82" s="86" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E82" s="86" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
       <c r="H82" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="J82" s="29"/>
       <c r="K82" s="28" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="94.5" x14ac:dyDescent="0.35">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
         <v>200</v>
       </c>
       <c r="B83" s="86" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D83" s="86" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E83" s="86" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F83" s="86" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="G83" s="27"/>
       <c r="H83" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I83" s="27" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="J83" s="29"/>
       <c r="K83" s="28" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A84" s="27" t="s">
         <v>200</v>
       </c>
       <c r="B84" s="86" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D84" s="86" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="E84" s="86" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I84" s="27" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J84" s="29"/>
       <c r="K84" s="28" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A85" s="27" t="s">
         <v>200</v>
       </c>
       <c r="B85" s="86" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D85" s="86" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E85" s="86" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I85" s="27" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="J85" s="29"/>
       <c r="K85" s="28" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="27" x14ac:dyDescent="0.35">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="27" t="s">
         <v>200</v>
       </c>
       <c r="B86" s="86" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D86" s="86" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E86" s="86" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F86" s="151" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="G86" s="86" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H86" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I86" s="27" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="J86" s="29" t="s">
         <v>72</v>
       </c>
       <c r="K86" s="28" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A87" s="27" t="s">
         <v>200</v>
       </c>
       <c r="B87" s="86" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D87" s="86" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E87" s="86" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F87" s="152"/>
       <c r="G87" s="86" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="H87" s="27" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I87" s="27" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="J87" s="29" t="s">
         <v>72</v>
       </c>
       <c r="K87" s="28" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
         <v>187</v>
       </c>
@@ -8800,7 +8791,7 @@
         <v>195</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D89" s="30" t="s">
         <v>190</v>
@@ -8824,19 +8815,19 @@
         <v>194</v>
       </c>
       <c r="K89" s="30" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A90" s="95" t="s">
         <v>195</v>
       </c>
       <c r="B90" s="96" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C90" s="95"/>
       <c r="D90" s="96" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="E90" s="96"/>
       <c r="F90" s="95"/>
@@ -8846,415 +8837,415 @@
       <c r="J90" s="97"/>
       <c r="K90" s="95"/>
     </row>
-    <row r="91" spans="1:11" s="101" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" s="101" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A91" s="129" t="s">
         <v>200</v>
       </c>
       <c r="B91" s="130" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C91" s="129" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D91" s="129" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E91" s="130" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="F91" s="129"/>
       <c r="G91" s="129"/>
       <c r="H91" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I91" s="117" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="J91" s="100"/>
       <c r="K91" s="115"/>
     </row>
-    <row r="92" spans="1:11" s="101" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" s="101" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B92" s="99" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C92" s="98" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D92" s="99" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E92" s="98" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="F92" s="98"/>
       <c r="G92" s="98"/>
       <c r="H92" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I92" s="98" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="J92" s="98"/>
       <c r="K92" s="99" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A93" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B93" s="99" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C93" s="98" t="s">
         <v>347</v>
       </c>
       <c r="D93" s="99" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="E93" s="98" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F93" s="98"/>
       <c r="G93" s="136" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="H93" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I93" s="163" t="s">
         <v>355</v>
       </c>
       <c r="J93" s="157"/>
       <c r="K93" s="160" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B94" s="99" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C94" s="98" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D94" s="99" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E94" s="98" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="F94" s="98"/>
       <c r="G94" s="136" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="H94" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I94" s="164"/>
       <c r="J94" s="158"/>
       <c r="K94" s="161"/>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B95" s="99" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C95" s="98" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D95" s="88" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E95" s="89" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F95" s="99"/>
       <c r="G95" s="136" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="H95" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I95" s="164"/>
       <c r="J95" s="158"/>
       <c r="K95" s="161"/>
     </row>
-    <row r="96" spans="1:11" s="101" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" s="101" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A96" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B96" s="99" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C96" s="98" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D96" s="99" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E96" s="98" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F96" s="99"/>
       <c r="G96" s="136" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="H96" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I96" s="164"/>
       <c r="J96" s="158"/>
       <c r="K96" s="161"/>
     </row>
-    <row r="97" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A97" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B97" s="99" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C97" s="98" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D97" s="99" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="E97" s="98" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F97" s="102"/>
       <c r="G97" s="98"/>
       <c r="H97" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I97" s="165"/>
       <c r="J97" s="159"/>
       <c r="K97" s="162"/>
     </row>
-    <row r="98" spans="1:11" s="101" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" s="101" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A98" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B98" s="99" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C98" s="98" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D98" s="99" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E98" s="98"/>
       <c r="F98" s="98"/>
       <c r="G98" s="98"/>
       <c r="H98" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I98" s="136" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="J98" s="98"/>
       <c r="K98" s="98"/>
     </row>
-    <row r="99" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B99" s="99" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C99" s="98" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D99" s="99" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="E99" s="98"/>
       <c r="F99" s="98"/>
       <c r="G99" s="98"/>
       <c r="H99" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I99" s="136" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="J99" s="98"/>
       <c r="K99" s="98"/>
     </row>
-    <row r="100" spans="1:11" s="101" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" s="101" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A100" s="134" t="s">
         <v>200</v>
       </c>
       <c r="B100" s="135" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C100" s="134" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D100" s="135" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E100" s="134"/>
       <c r="F100" s="135" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G100" s="134"/>
       <c r="H100" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I100" s="137" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="J100" s="134"/>
       <c r="K100" s="134"/>
     </row>
-    <row r="101" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A101" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B101" s="99" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C101" s="98" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D101" s="99" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E101" s="98" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F101" s="98"/>
       <c r="G101" s="98"/>
       <c r="H101" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I101" s="98" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="J101" s="98"/>
       <c r="K101" s="98"/>
     </row>
-    <row r="102" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B102" s="99" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C102" s="98" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D102" s="99" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E102" s="98" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="F102" s="98"/>
       <c r="G102" s="98"/>
       <c r="H102" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I102" s="98" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="J102" s="98"/>
       <c r="K102" s="98"/>
     </row>
-    <row r="103" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B103" s="99" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C103" s="99" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="99" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E103" s="98" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F103" s="99"/>
       <c r="G103" s="98"/>
       <c r="H103" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I103" s="98" t="s">
         <v>267</v>
       </c>
       <c r="J103" s="98"/>
       <c r="K103" s="98" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A104" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B104" s="99" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C104" s="98" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D104" s="99" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E104" s="98" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F104" s="98"/>
       <c r="G104" s="98"/>
       <c r="H104" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I104" s="98" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="J104" s="98"/>
       <c r="K104" s="98"/>
     </row>
-    <row r="105" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" s="101" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A105" s="98" t="s">
         <v>200</v>
       </c>
       <c r="B105" s="99" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C105" s="98" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D105" s="99" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E105" s="103" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F105" s="98"/>
       <c r="G105" s="98"/>
       <c r="H105" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I105" s="98" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="J105" s="98"/>
       <c r="K105" s="98"/>
     </row>
-    <row r="106" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>187</v>
       </c>
@@ -9286,62 +9277,62 @@
         <v>194</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B108" s="107" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C108" s="108"/>
       <c r="D108" s="109" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E108" s="107"/>
       <c r="F108" s="107"/>
       <c r="G108" s="107"/>
       <c r="H108" s="107" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I108" s="107"/>
       <c r="J108" s="110"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B109" s="111" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C109" s="108" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D109" s="111" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E109" s="108"/>
       <c r="F109" s="108"/>
       <c r="G109" s="108"/>
       <c r="H109" s="108" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I109" s="108" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="J109" s="29"/>
     </row>
-    <row r="110" spans="1:11" ht="27" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B110" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C110" s="93" t="s">
         <v>162</v>
       </c>
       <c r="D110" s="93" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E110" s="93"/>
       <c r="F110" s="93"/>
@@ -9349,589 +9340,589 @@
         <v>201</v>
       </c>
       <c r="H110" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I110" s="93" t="s">
         <v>452</v>
       </c>
       <c r="J110" s="93"/>
     </row>
-    <row r="111" spans="1:11" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A111" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B111" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C111" s="93" t="s">
+        <v>795</v>
+      </c>
+      <c r="D111" s="93" t="s">
+        <v>796</v>
+      </c>
+      <c r="E111" s="93" t="s">
+        <v>797</v>
+      </c>
+      <c r="F111" s="93" t="s">
+        <v>798</v>
+      </c>
+      <c r="G111" s="93" t="s">
+        <v>799</v>
+      </c>
+      <c r="H111" s="93" t="s">
+        <v>790</v>
+      </c>
+      <c r="I111" s="93" t="s">
         <v>800</v>
       </c>
-      <c r="D111" s="93" t="s">
-        <v>801</v>
-      </c>
-      <c r="E111" s="93" t="s">
-        <v>802</v>
-      </c>
-      <c r="F111" s="93" t="s">
-        <v>803</v>
-      </c>
-      <c r="G111" s="93" t="s">
-        <v>804</v>
-      </c>
-      <c r="H111" s="93" t="s">
-        <v>795</v>
-      </c>
-      <c r="I111" s="93" t="s">
-        <v>805</v>
-      </c>
       <c r="J111" s="93"/>
     </row>
-    <row r="112" spans="1:11" ht="54" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A112" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B112" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C112" s="93" t="s">
+        <v>801</v>
+      </c>
+      <c r="D112" s="93" t="s">
+        <v>802</v>
+      </c>
+      <c r="E112" s="93" t="s">
+        <v>803</v>
+      </c>
+      <c r="F112" s="93" t="s">
+        <v>804</v>
+      </c>
+      <c r="G112" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="H112" s="93" t="s">
+        <v>790</v>
+      </c>
+      <c r="I112" s="112" t="s">
         <v>806</v>
       </c>
-      <c r="D112" s="93" t="s">
-        <v>807</v>
-      </c>
-      <c r="E112" s="93" t="s">
-        <v>808</v>
-      </c>
-      <c r="F112" s="93" t="s">
-        <v>809</v>
-      </c>
-      <c r="G112" s="93" t="s">
-        <v>810</v>
-      </c>
-      <c r="H112" s="93" t="s">
-        <v>795</v>
-      </c>
-      <c r="I112" s="112" t="s">
-        <v>811</v>
-      </c>
       <c r="J112" s="93" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A113" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B113" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C113" s="93" t="s">
+        <v>807</v>
+      </c>
+      <c r="D113" s="93" t="s">
+        <v>808</v>
+      </c>
+      <c r="E113" s="93" t="s">
+        <v>809</v>
+      </c>
+      <c r="F113" s="93" t="s">
+        <v>810</v>
+      </c>
+      <c r="G113" s="113" t="s">
+        <v>811</v>
+      </c>
+      <c r="H113" s="93" t="s">
+        <v>790</v>
+      </c>
+      <c r="I113" s="93" t="s">
         <v>812</v>
       </c>
-      <c r="D113" s="93" t="s">
-        <v>813</v>
-      </c>
-      <c r="E113" s="93" t="s">
-        <v>814</v>
-      </c>
-      <c r="F113" s="93" t="s">
-        <v>815</v>
-      </c>
-      <c r="G113" s="113" t="s">
-        <v>816</v>
-      </c>
-      <c r="H113" s="93" t="s">
-        <v>795</v>
-      </c>
-      <c r="I113" s="93" t="s">
-        <v>817</v>
-      </c>
       <c r="J113" s="93"/>
     </row>
-    <row r="114" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B114" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C114" s="93" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="D114" s="93" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="E114" s="93" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F114" s="93"/>
       <c r="G114" s="93"/>
       <c r="H114" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I114" s="93" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="J114" s="93"/>
     </row>
-    <row r="115" spans="1:10" ht="202.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A115" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B115" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C115" s="93" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="D115" s="93" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="E115" s="93" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="F115" s="93" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G115" s="93" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="H115" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I115" s="93" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="J115" s="93"/>
     </row>
-    <row r="116" spans="1:10" s="132" customFormat="1" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" s="132" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A116" s="47" t="s">
         <v>200</v>
       </c>
       <c r="B116" s="49" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C116" s="49" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D116" s="49" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E116" s="131" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="F116" s="49" t="s">
+        <v>824</v>
+      </c>
+      <c r="G116" s="113" t="s">
         <v>829</v>
       </c>
-      <c r="G116" s="113" t="s">
-        <v>834</v>
-      </c>
       <c r="H116" s="49" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I116" s="49" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="J116" s="49"/>
     </row>
-    <row r="117" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A117" s="113" t="s">
         <v>200</v>
       </c>
       <c r="B117" s="113" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C117" s="113" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D117" s="113" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E117" s="113" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F117" s="113" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="G117" s="113" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="H117" s="113" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I117" s="113" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="J117" s="113"/>
     </row>
-    <row r="118" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A118" s="94" t="s">
         <v>200</v>
       </c>
       <c r="B118" s="94" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C118" s="94" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D118" s="94" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E118" s="93" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="F118" s="94"/>
       <c r="G118" s="94"/>
       <c r="H118" s="94" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I118" s="94" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="J118" s="94"/>
     </row>
-    <row r="119" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A119" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B119" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C119" s="112" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D119" s="93" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E119" s="93" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F119" s="93" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G119" s="93" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="H119" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I119" s="112" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="J119" s="93"/>
     </row>
-    <row r="120" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A120" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B120" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C120" s="93" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="E120" s="93" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F120" s="93" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="G120" s="113" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="H120" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I120" s="93" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="J120" s="93"/>
     </row>
-    <row r="121" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A121" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B121" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C121" s="93" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="D121" s="93" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E121" s="93" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="F121" s="93"/>
       <c r="G121" s="93"/>
       <c r="H121" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I121" s="93" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="J121" s="93"/>
     </row>
-    <row r="122" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A122" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B122" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C122" s="93" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="D122" s="93" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E122" s="93" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="F122" s="93"/>
       <c r="G122" s="93" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="H122" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I122" s="93" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="J122" s="93"/>
     </row>
-    <row r="123" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A123" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B123" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C123" s="93" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="D123" s="93" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E123" s="93" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F123" s="93" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G123" s="93"/>
       <c r="H123" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I123" s="93" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="J123" s="93" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A124" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B124" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C124" s="93" t="s">
         <v>215</v>
       </c>
       <c r="D124" s="93" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E124" s="93" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="F124" s="93" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="G124" s="93"/>
       <c r="H124" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I124" s="93" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="J124" s="93" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A125" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B125" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C125" s="93" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="D125" s="93" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E125" s="93" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="F125" s="93"/>
       <c r="G125" s="93" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="H125" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I125" s="93" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="J125" s="93"/>
     </row>
-    <row r="126" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A126" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B126" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C126" s="93" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="D126" s="93" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="E126" s="93" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F126" s="93" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="G126" s="93"/>
       <c r="H126" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I126" s="93" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="J126" s="93"/>
     </row>
-    <row r="127" spans="1:10" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A127" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B127" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C127" s="93" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D127" s="93" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E127" s="93" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F127" s="93"/>
       <c r="G127" s="113" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="H127" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I127" s="93" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="J127" s="93"/>
     </row>
-    <row r="128" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B128" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C128" s="93" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="D128" s="93" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="E128" s="93" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F128" s="93" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="G128" s="114"/>
       <c r="H128" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I128" s="93" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="J128" s="93"/>
     </row>
-    <row r="129" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A129" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B129" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C129" s="93" t="s">
         <v>268</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="E129" s="93" t="s">
         <v>345</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="G129" s="114"/>
       <c r="H129" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I129" s="93" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="J129" s="93"/>
     </row>
-    <row r="130" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A130" s="93" t="s">
         <v>200</v>
       </c>
       <c r="B130" s="93" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C130" s="93" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D130" s="93" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E130" s="93" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="F130" s="93"/>
       <c r="G130" s="93"/>
       <c r="H130" s="93" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I130" s="93" t="s">
         <v>288</v>
       </c>
       <c r="J130" s="93"/>
     </row>
-    <row r="131" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
         <v>187</v>
       </c>
@@ -9963,509 +9954,509 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A133" s="116" t="s">
         <v>195</v>
       </c>
       <c r="B133" s="116"/>
       <c r="C133" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D133" s="116" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="E133" s="116"/>
       <c r="F133" s="116"/>
       <c r="G133" s="116"/>
       <c r="H133" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I133" s="116"/>
       <c r="J133" s="116"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B134" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C134" s="116" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="D134" s="116" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="E134" s="116"/>
       <c r="F134" s="116"/>
       <c r="G134" s="116"/>
       <c r="H134" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I134" s="116" t="s">
         <v>452</v>
       </c>
       <c r="J134" s="116"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B135" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C135" s="116" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D135" s="116" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="E135" s="116"/>
       <c r="F135" s="116"/>
       <c r="G135" s="116"/>
       <c r="H135" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I135" s="116" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="J135" s="116"/>
     </row>
-    <row r="136" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A136" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B136" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C136" s="116" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="D136" s="116" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E136" s="116" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="F136" s="116"/>
       <c r="G136" s="133" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="H136" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I136" s="116" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="J136" s="116"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B137" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C137" s="116" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="D137" s="116" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="E137" s="116" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F137" s="116" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G137" s="116"/>
       <c r="H137" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I137" s="116" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="J137" s="116"/>
     </row>
-    <row r="138" spans="1:10" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A138" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B138" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C138" s="116" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="D138" s="116" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="E138" s="116" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="F138" s="116" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="G138" s="116"/>
       <c r="H138" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I138" s="116" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="J138" s="116"/>
     </row>
-    <row r="139" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A139" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B139" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C139" s="116" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D139" s="116" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="E139" s="116" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="F139" s="116"/>
       <c r="G139" s="133" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="H139" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I139" s="116" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="J139" s="116"/>
     </row>
-    <row r="140" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A140" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B140" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C140" s="116" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="D140" s="116" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="E140" s="116" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="F140" s="116"/>
       <c r="G140" s="116" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H140" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I140" s="116" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="J140" s="116"/>
     </row>
-    <row r="141" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A141" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B141" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C141" s="116" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="D141" s="116" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="E141" s="116" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="F141" s="116"/>
       <c r="G141" s="116" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="H141" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I141" s="116" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="J141" s="116"/>
     </row>
-    <row r="142" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A142" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B142" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C142" s="116" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="116" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="E142" s="116" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="F142" s="116"/>
       <c r="G142" s="116"/>
       <c r="H142" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I142" s="116" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="J142" s="116"/>
     </row>
-    <row r="143" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A143" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B143" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C143" s="116" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D143" s="116" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="E143" s="116" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F143" s="116"/>
       <c r="G143" s="116"/>
       <c r="H143" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I143" s="116" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="J143" s="116"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B144" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C144" s="116" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D144" s="116" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="E144" s="116" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="F144" s="116"/>
       <c r="G144" s="116"/>
       <c r="H144" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I144" s="116" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="J144" s="116"/>
     </row>
-    <row r="145" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A145" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B145" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C145" s="116" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D145" s="116" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E145" s="116" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="F145" s="116"/>
       <c r="G145" s="116"/>
       <c r="H145" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I145" s="116" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="J145" s="116"/>
     </row>
-    <row r="146" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A146" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B146" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C146" s="116" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="116" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="E146" s="116" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="F146" s="116" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="G146" s="116" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="H146" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I146" s="116" t="s">
         <v>267</v>
       </c>
       <c r="J146" s="116"/>
     </row>
-    <row r="147" spans="1:10" ht="81" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A147" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B147" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C147" s="116" t="s">
         <v>70</v>
       </c>
       <c r="D147" s="116" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="E147" s="116" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="F147" s="116" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="G147" s="116"/>
       <c r="H147" s="116" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="I147" s="116"/>
       <c r="J147" s="116"/>
     </row>
-    <row r="148" spans="1:10" ht="54" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A148" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B148" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C148" s="116" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="D148" s="116" t="s">
-        <v>970</v>
+        <v>1014</v>
       </c>
       <c r="E148" s="116" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="F148" s="116" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="G148" s="116" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="H148" s="116" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="I148" s="116" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="J148" s="116"/>
     </row>
-    <row r="149" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A149" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B149" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C149" s="116" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="D149" s="116" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="E149" s="116" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F149" s="116" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="G149" s="116" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="H149" s="116" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="I149" s="116" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="J149" s="116"/>
     </row>
-    <row r="150" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A150" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B150" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C150" s="116" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D150" s="116" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="E150" s="116" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F150" s="116" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G150" s="116"/>
       <c r="H150" s="116"/>
       <c r="I150" s="116"/>
       <c r="J150" s="116"/>
     </row>
-    <row r="151" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A151" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B151" s="116" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C151" s="116" t="s">
         <v>328</v>
       </c>
       <c r="D151" s="116" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="E151" s="116" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="F151" s="116"/>
       <c r="G151" s="116"/>
       <c r="H151" s="116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I151" s="116" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="J151" s="116"/>
     </row>
@@ -10515,13 +10506,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>434</v>
       </c>
@@ -10530,7 +10521,7 @@
       </c>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>436</v>
       </c>
@@ -10540,7 +10531,7 @@
       <c r="C2" s="144"/>
       <c r="D2" s="144"/>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="166" t="s">
         <v>516</v>
       </c>
@@ -10548,7 +10539,7 @@
       <c r="C4" s="166"/>
       <c r="D4" s="166"/>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="166" t="s">
         <v>517</v>
       </c>
@@ -10574,7 +10565,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="33.25" customWidth="1"/>
@@ -10582,7 +10573,7 @@
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="62" t="s">
         <v>446</v>
       </c>
@@ -10590,7 +10581,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="63" t="str">
         <f>'NHS England Scenarios'!$B$1</f>
         <v>NHS England Scenarios</v>
@@ -10601,7 +10592,7 @@
       </c>
       <c r="E3" s="61"/>
     </row>
-    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B4" s="63" t="str">
         <f>'Processes - Use Cases'!$B$1</f>
         <v>Processes - Use Cases</v>
@@ -10611,7 +10602,7 @@
         <v>A list of documented business processes that could be supported by GP Connect Structured, where those processes fit into the NHS England Scenarios and which of the supported clinical areas they impact. The details of each business process are held in another set of documents.</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="63" t="str">
         <f>'User Stories - Structured'!$B$1</f>
         <v>User Stories - Structured</v>
@@ -10621,7 +10612,7 @@
         <v>Business Requirements that apply across all of GP Connect Structured</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="63" t="str">
         <f>'User Stories - Meds'!$B$1</f>
         <v>User Stories - Meds</v>
@@ -10631,7 +10622,7 @@
         <v>Business Requirements that apply to the Medication and Medical Devices clinical area of GP Connect Structured</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="63" t="str">
         <f>'User Stories - Allergies'!$B$1</f>
         <v>User Stories - Allergies</v>
@@ -10641,7 +10632,7 @@
         <v>Business Requirements that apply to the Allergies and Adverse Reaction clinical area of GP Connect Structured</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="63" t="str">
         <f>'User Stories - Problems'!B1</f>
         <v>User Stories - Problems</v>
@@ -10651,7 +10642,7 @@
         <v>Business Requirements that apply to the Problem clinical area of GP Connect Structured</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="92" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" s="92" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="63" t="str">
         <f>'User Stories - Uncategorised'!B1</f>
         <v>User Stories - Uncategorised</v>
@@ -10661,7 +10652,7 @@
         <v>Business Requirements that apply to the Uncategorised Data clinical area of GP Connect Structured</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="128" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" s="128" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="63" t="str">
         <f>'User Stories - Consultations'!B1</f>
         <v>User Stories - Consultations</v>
@@ -10671,7 +10662,7 @@
         <v>Business Requirements that apply to the Consultations clinical area of GP Connect Structured</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="128" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" s="128" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="63" t="str">
         <f>'User Stories - Immunisations'!B1</f>
         <v>User Stories - Immunisations</v>
@@ -10681,7 +10672,7 @@
         <v>Business Requirements that apply to the Immunisations clinical area of GP Connect Structured</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B12" s="63" t="str">
         <f>'User Stories - Core'!$B$1</f>
         <v>User Stories - Core</v>
@@ -10691,7 +10682,7 @@
         <v>In future iterations, a common set of core requirements will apply across all GP Connect capabilities. Further allignment work is still required to reach that stage so this version of the core requirements applies across GP Connect Structured only (core requirements for the other capabilities are documented elsewhere).</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B13" s="63" t="str">
         <f>'User Stories - IG'!$B$1</f>
         <v>User Stories - IG</v>
@@ -10701,7 +10692,7 @@
         <v>In future iterations, a common set of IG requirements will apply across all GP Connect capabilities. Further allignment work is still required to reach that stage so this version of the IG requirements applies across GP Connect Structured only (IG requirments for the other capabilities are documented elsewhere).</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B14" s="63" t="str">
         <f>'Logical Data Model'!$B$1</f>
         <v>Logical Data Model</v>
@@ -10711,7 +10702,7 @@
         <v>All the data items identified by stakeholders as necessary or beneficial in supporting the direct care of their patients and where those data items map into the FHIR profiles.</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="63" t="str">
         <f>'Medication Date Search'!B1</f>
         <v>Medication Date Search</v>
@@ -10721,7 +10712,7 @@
         <v>Graphical representation of the medication date search</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D16" s="15"/>
     </row>
   </sheetData>
@@ -10736,7 +10727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="63.5" customWidth="1"/>
@@ -10745,7 +10736,7 @@
     <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>434</v>
       </c>
@@ -10754,7 +10745,7 @@
       </c>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:5" ht="32.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>436</v>
       </c>
@@ -10764,10 +10755,10 @@
       <c r="C2" s="144"/>
       <c r="D2" s="144"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -10784,7 +10775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="122.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="122.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -10801,7 +10792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="82.15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="87.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -10818,7 +10809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="135.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -10835,7 +10826,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="135.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
@@ -10852,7 +10843,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="108" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -10869,7 +10860,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="81.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="87" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
@@ -10886,7 +10877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="108.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="115.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>63</v>
       </c>
@@ -10914,28 +10905,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.125" style="14" customWidth="1"/>
     <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.375" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="15" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="7" width="12.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
-    <col min="10" max="22" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="19" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>434</v>
       </c>
@@ -10945,9 +10936,8 @@
       <c r="C1" s="15"/>
       <c r="D1"/>
       <c r="F1"/>
-      <c r="G1"/>
-    </row>
-    <row r="2" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>436</v>
       </c>
@@ -10957,16 +10947,14 @@
       <c r="C2" s="144"/>
       <c r="D2" s="144"/>
       <c r="F2"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="C3" s="15"/>
       <c r="D3"/>
       <c r="F3"/>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>68</v>
       </c>
@@ -11010,31 +10998,22 @@
         <v>541</v>
       </c>
       <c r="O4" s="68" t="s">
+        <v>1012</v>
+      </c>
+      <c r="P4" s="68" t="s">
         <v>542</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="Q4" s="68" t="s">
         <v>543</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="R4" s="68" t="s">
         <v>544</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="S4" s="68" t="s">
         <v>545</v>
       </c>
-      <c r="S4" s="68" t="s">
-        <v>546</v>
-      </c>
-      <c r="T4" s="68" t="s">
-        <v>547</v>
-      </c>
-      <c r="U4" s="68" t="s">
-        <v>548</v>
-      </c>
-      <c r="V4" s="68" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="69">
         <v>3.1</v>
       </c>
@@ -11042,35 +11021,32 @@
         <v>71</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D5" s="71" t="s">
         <v>72</v>
       </c>
       <c r="E5" s="71"/>
       <c r="F5" s="71"/>
-      <c r="G5" s="71" t="s">
-        <v>72</v>
-      </c>
+      <c r="G5" s="71"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
       <c r="J5" s="71"/>
       <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="71"/>
-      <c r="N5" s="72"/>
+      <c r="N5" s="71"/>
       <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
+      <c r="P5" s="71" t="s">
+        <v>72</v>
+      </c>
       <c r="Q5" s="71"/>
-      <c r="R5" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-    </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R5" s="71"/>
+      <c r="S5" s="71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="73">
         <v>3.2</v>
       </c>
@@ -11078,7 +11054,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D6" s="75"/>
       <c r="E6" s="75"/>
@@ -11088,21 +11064,18 @@
       <c r="I6" s="75"/>
       <c r="J6" s="75"/>
       <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
+      <c r="L6" s="76"/>
       <c r="M6" s="75"/>
-      <c r="N6" s="76"/>
+      <c r="N6" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="O6" s="75"/>
-      <c r="P6" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="P6" s="75"/>
       <c r="Q6" s="75"/>
       <c r="R6" s="75"/>
       <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-    </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="73">
         <v>3.3</v>
       </c>
@@ -11110,7 +11083,7 @@
         <v>74</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D7" s="75" t="s">
         <v>72</v>
@@ -11123,38 +11096,31 @@
       <c r="H7" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="75"/>
+      <c r="L7" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="M7" s="75"/>
-      <c r="N7" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" s="75"/>
+      <c r="N7" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P7" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="R7" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
       <c r="S7" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="73">
         <v>3.4</v>
       </c>
@@ -11162,7 +11128,7 @@
         <v>75</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D8" s="75"/>
       <c r="E8" s="75"/>
@@ -11172,21 +11138,18 @@
       <c r="I8" s="75"/>
       <c r="J8" s="75"/>
       <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
+      <c r="L8" s="76"/>
       <c r="M8" s="75"/>
-      <c r="N8" s="76"/>
+      <c r="N8" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="O8" s="75"/>
-      <c r="P8" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="P8" s="75"/>
       <c r="Q8" s="75"/>
       <c r="R8" s="75"/>
       <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-    </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="73">
         <v>3.5</v>
       </c>
@@ -11194,7 +11157,7 @@
         <v>76</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D9" s="75"/>
       <c r="E9" s="75"/>
@@ -11204,21 +11167,18 @@
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
       <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
+      <c r="L9" s="76"/>
       <c r="M9" s="75"/>
-      <c r="N9" s="76"/>
+      <c r="N9" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="O9" s="75"/>
-      <c r="P9" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="P9" s="75"/>
       <c r="Q9" s="75"/>
       <c r="R9" s="75"/>
       <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-    </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="73">
         <v>3.6</v>
       </c>
@@ -11226,7 +11186,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D10" s="75" t="s">
         <v>72</v>
@@ -11238,23 +11198,20 @@
       <c r="I10" s="75"/>
       <c r="J10" s="75"/>
       <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
+      <c r="L10" s="76"/>
       <c r="M10" s="75"/>
-      <c r="N10" s="76"/>
+      <c r="N10" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="O10" s="75"/>
       <c r="P10" s="75" t="s">
         <v>72</v>
       </c>
       <c r="Q10" s="75"/>
-      <c r="R10" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="R10" s="75"/>
       <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-    </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="73">
         <v>3.7</v>
       </c>
@@ -11262,7 +11219,7 @@
         <v>78</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D11" s="75" t="s">
         <v>72</v>
@@ -11283,38 +11240,29 @@
       <c r="J11" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="75" t="s">
+      <c r="K11" s="75"/>
+      <c r="L11" s="76" t="s">
         <v>72</v>
       </c>
       <c r="M11" s="75"/>
-      <c r="N11" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="O11" s="75"/>
+      <c r="N11" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P11" s="75" t="s">
         <v>72</v>
       </c>
       <c r="Q11" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="R11" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="R11" s="75"/>
       <c r="S11" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="T11" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="73">
         <v>3.8</v>
       </c>
@@ -11322,7 +11270,7 @@
         <v>79</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D12" s="75" t="s">
         <v>72</v>
@@ -11333,12 +11281,14 @@
       <c r="H12" s="75"/>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" s="76" t="s">
+      <c r="K12" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75" t="s">
         <v>72</v>
       </c>
       <c r="O12" s="75"/>
@@ -11346,17 +11296,12 @@
         <v>72</v>
       </c>
       <c r="Q12" s="75"/>
-      <c r="R12" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R12" s="75"/>
+      <c r="S12" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="73">
         <v>3.9</v>
       </c>
@@ -11364,37 +11309,34 @@
         <v>80</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D13" s="75" t="s">
         <v>72</v>
       </c>
       <c r="E13" s="75"/>
       <c r="F13" s="75"/>
-      <c r="G13" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="G13" s="75"/>
       <c r="H13" s="75"/>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
       <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
+      <c r="L13" s="76"/>
       <c r="M13" s="75"/>
-      <c r="N13" s="76"/>
+      <c r="N13" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="O13" s="75"/>
       <c r="P13" s="75" t="s">
         <v>72</v>
       </c>
       <c r="Q13" s="75"/>
-      <c r="R13" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-    </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="R13" s="75"/>
+      <c r="S13" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="73" t="s">
         <v>81</v>
       </c>
@@ -11402,23 +11344,23 @@
         <v>82</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D14" s="75" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
-      <c r="G14" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="G14" s="75"/>
       <c r="H14" s="75"/>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
       <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
+      <c r="L14" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="M14" s="75"/>
-      <c r="N14" s="76" t="s">
+      <c r="N14" s="75" t="s">
         <v>72</v>
       </c>
       <c r="O14" s="75"/>
@@ -11426,15 +11368,12 @@
         <v>72</v>
       </c>
       <c r="Q14" s="75"/>
-      <c r="R14" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-    </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R14" s="75"/>
+      <c r="S14" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="73" t="s">
         <v>83</v>
       </c>
@@ -11442,23 +11381,23 @@
         <v>84</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D15" s="75" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
-      <c r="G15" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="G15" s="75"/>
       <c r="H15" s="75"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
       <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
+      <c r="L15" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="M15" s="75"/>
-      <c r="N15" s="76" t="s">
+      <c r="N15" s="75" t="s">
         <v>72</v>
       </c>
       <c r="O15" s="75"/>
@@ -11466,15 +11405,12 @@
         <v>72</v>
       </c>
       <c r="Q15" s="75"/>
-      <c r="R15" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="75"/>
-    </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R15" s="75"/>
+      <c r="S15" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="73" t="s">
         <v>85</v>
       </c>
@@ -11482,7 +11418,7 @@
         <v>86</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D16" s="75"/>
       <c r="E16" s="75"/>
@@ -11491,24 +11427,21 @@
       <c r="H16" s="75"/>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="N16" s="76"/>
+      <c r="K16" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="76"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="O16" s="75"/>
-      <c r="P16" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="P16" s="75"/>
       <c r="Q16" s="75"/>
       <c r="R16" s="75"/>
       <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-    </row>
-    <row r="17" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="73" t="s">
         <v>87</v>
       </c>
@@ -11516,7 +11449,7 @@
         <v>88</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D17" s="75" t="s">
         <v>72</v>
@@ -11529,36 +11462,31 @@
       <c r="H17" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="75"/>
+      <c r="L17" s="76"/>
       <c r="M17" s="75"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="75"/>
+      <c r="N17" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P17" s="75" t="s">
         <v>72</v>
       </c>
       <c r="Q17" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="R17" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="U17" s="75"/>
-      <c r="V17" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R17" s="75"/>
+      <c r="S17" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="73" t="s">
         <v>89</v>
       </c>
@@ -11566,7 +11494,7 @@
         <v>90</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D18" s="75" t="s">
         <v>72</v>
@@ -11578,39 +11506,34 @@
       <c r="G18" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="H18" s="75"/>
       <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="75"/>
+      <c r="J18" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="75"/>
+      <c r="L18" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="M18" s="75"/>
-      <c r="N18" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="O18" s="75"/>
+      <c r="N18" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P18" s="75" t="s">
         <v>72</v>
       </c>
       <c r="Q18" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="R18" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="U18" s="75"/>
-      <c r="V18" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R18" s="75"/>
+      <c r="S18" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="73" t="s">
         <v>91</v>
       </c>
@@ -11618,7 +11541,7 @@
         <v>92</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D19" s="75" t="s">
         <v>72</v>
@@ -11633,38 +11556,33 @@
       <c r="H19" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="75"/>
+      <c r="L19" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="M19" s="75"/>
-      <c r="N19" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="O19" s="75"/>
+      <c r="N19" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P19" s="75" t="s">
         <v>72</v>
       </c>
       <c r="Q19" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="R19" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S19" s="75"/>
-      <c r="T19" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="U19" s="75"/>
-      <c r="V19" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="R19" s="75"/>
+      <c r="S19" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="73" t="s">
         <v>93</v>
       </c>
@@ -11672,7 +11590,7 @@
         <v>94</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D20" s="75" t="s">
         <v>72</v>
@@ -11681,36 +11599,33 @@
         <v>72</v>
       </c>
       <c r="F20" s="75"/>
-      <c r="G20" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="75"/>
       <c r="J20" s="75"/>
       <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
+      <c r="L20" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="M20" s="75"/>
-      <c r="N20" s="76" t="s">
+      <c r="N20" s="75" t="s">
         <v>72</v>
       </c>
       <c r="O20" s="75"/>
       <c r="P20" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-    </row>
-    <row r="21" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="Q20" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="73" t="s">
         <v>95</v>
       </c>
@@ -11718,7 +11633,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D21" s="75" t="s">
         <v>72</v>
@@ -11727,40 +11642,35 @@
         <v>72</v>
       </c>
       <c r="F21" s="75"/>
-      <c r="G21" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="75"/>
       <c r="J21" s="75"/>
       <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
+      <c r="L21" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="M21" s="75"/>
-      <c r="N21" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" s="75"/>
+      <c r="N21" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P21" s="75" t="s">
         <v>72</v>
       </c>
       <c r="Q21" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="R21" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S21" s="75"/>
-      <c r="T21" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="U21" s="75"/>
-      <c r="V21" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="R21" s="75"/>
+      <c r="S21" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="73" t="s">
         <v>97</v>
       </c>
@@ -11768,7 +11678,7 @@
         <v>98</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D22" s="75" t="s">
         <v>72</v>
@@ -11777,36 +11687,33 @@
         <v>72</v>
       </c>
       <c r="F22" s="75"/>
-      <c r="G22" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="75"/>
       <c r="J22" s="75"/>
       <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
+      <c r="L22" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="M22" s="75"/>
-      <c r="N22" s="76" t="s">
+      <c r="N22" s="75" t="s">
         <v>72</v>
       </c>
       <c r="O22" s="75"/>
       <c r="P22" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
-    </row>
-    <row r="23" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q22" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="73" t="s">
         <v>99</v>
       </c>
@@ -11814,7 +11721,7 @@
         <v>100</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D23" s="75" t="s">
         <v>72</v>
@@ -11824,39 +11731,32 @@
       <c r="G23" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="H23" s="75"/>
       <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="75"/>
+      <c r="J23" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="75"/>
+      <c r="L23" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="M23" s="75"/>
-      <c r="N23" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="O23" s="75"/>
+      <c r="N23" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P23" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q23" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="R23" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
       <c r="S23" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="T23" s="75"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="73" t="s">
         <v>101</v>
       </c>
@@ -11864,37 +11764,34 @@
         <v>102</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D24" s="75" t="s">
         <v>72</v>
       </c>
       <c r="E24" s="75"/>
       <c r="F24" s="75"/>
-      <c r="G24" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="G24" s="75"/>
       <c r="H24" s="75"/>
       <c r="I24" s="75"/>
       <c r="J24" s="75"/>
       <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
+      <c r="L24" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="M24" s="75"/>
-      <c r="N24" s="76" t="s">
-        <v>72</v>
-      </c>
+      <c r="N24" s="75"/>
       <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
+      <c r="P24" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="Q24" s="75"/>
-      <c r="R24" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S24" s="75"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="75"/>
-    </row>
-    <row r="25" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="R24" s="75"/>
+      <c r="S24" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="73" t="s">
         <v>103</v>
       </c>
@@ -11902,7 +11799,7 @@
         <v>104</v>
       </c>
       <c r="C25" s="74" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D25" s="75" t="s">
         <v>72</v>
@@ -11914,21 +11811,18 @@
       <c r="I25" s="75"/>
       <c r="J25" s="75"/>
       <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
+      <c r="L25" s="76"/>
       <c r="M25" s="75"/>
-      <c r="N25" s="76"/>
+      <c r="N25" s="75"/>
       <c r="O25" s="75"/>
       <c r="P25" s="75"/>
       <c r="Q25" s="75"/>
       <c r="R25" s="75"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="75"/>
-      <c r="V25" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="S25" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="73" t="s">
         <v>105</v>
       </c>
@@ -11936,7 +11830,7 @@
         <v>106</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D26" s="75" t="s">
         <v>72</v>
@@ -11953,38 +11847,31 @@
       <c r="H26" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="I26" s="75"/>
       <c r="J26" s="75"/>
       <c r="K26" s="75"/>
-      <c r="L26" s="75" t="s">
+      <c r="L26" s="76" t="s">
         <v>72</v>
       </c>
       <c r="M26" s="75"/>
-      <c r="N26" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="O26" s="75"/>
+      <c r="N26" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P26" s="75" t="s">
         <v>72</v>
       </c>
       <c r="Q26" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="R26" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R26" s="75"/>
+      <c r="S26" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="73" t="s">
         <v>107</v>
       </c>
@@ -11992,7 +11879,7 @@
         <v>108</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D27" s="75" t="s">
         <v>72</v>
@@ -12001,88 +11888,78 @@
         <v>72</v>
       </c>
       <c r="F27" s="75"/>
-      <c r="G27" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="75"/>
       <c r="J27" s="75"/>
       <c r="K27" s="75"/>
-      <c r="L27" s="75" t="s">
+      <c r="L27" s="76" t="s">
         <v>72</v>
       </c>
       <c r="M27" s="75"/>
-      <c r="N27" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="O27" s="75"/>
+      <c r="N27" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P27" s="75" t="s">
         <v>72</v>
       </c>
       <c r="Q27" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="R27" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="R27" s="75"/>
+      <c r="S27" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="77" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B28" s="78" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D28" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E28" s="75"/>
       <c r="F28" s="75"/>
-      <c r="G28" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="G28" s="75"/>
       <c r="H28" s="75"/>
       <c r="I28" s="75"/>
       <c r="J28" s="75"/>
       <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
+      <c r="L28" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="M28" s="75"/>
-      <c r="N28" s="76" t="s">
-        <v>72</v>
-      </c>
+      <c r="N28" s="76"/>
       <c r="O28" s="75"/>
-      <c r="P28" s="76"/>
+      <c r="P28" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="Q28" s="75"/>
-      <c r="R28" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="S28" s="76"/>
-      <c r="T28" s="75"/>
-      <c r="U28" s="75"/>
-      <c r="V28" s="75"/>
-    </row>
-    <row r="29" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="R28" s="75"/>
+      <c r="S28" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="77" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B29" s="78" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C29" s="78" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D29" s="76" t="s">
         <v>72</v>
@@ -12092,153 +11969,137 @@
       <c r="G29" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="H29" s="75"/>
       <c r="I29" s="75"/>
       <c r="J29" s="75"/>
       <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
+      <c r="L29" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="M29" s="75"/>
-      <c r="N29" s="76" t="s">
-        <v>72</v>
-      </c>
+      <c r="N29" s="76"/>
       <c r="O29" s="75"/>
-      <c r="P29" s="76"/>
+      <c r="P29" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="Q29" s="75"/>
-      <c r="R29" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="S29" s="76"/>
-      <c r="T29" s="75"/>
-      <c r="U29" s="75"/>
-      <c r="V29" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="R29" s="75"/>
+      <c r="S29" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="77" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B30" s="78" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D30" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="75"/>
       <c r="F30" s="75"/>
-      <c r="G30" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="75"/>
       <c r="J30" s="75"/>
       <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
+      <c r="L30" s="76"/>
       <c r="M30" s="75"/>
-      <c r="N30" s="76"/>
+      <c r="N30" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="O30" s="75"/>
       <c r="P30" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="S30" s="76"/>
-      <c r="T30" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="U30" s="75"/>
-      <c r="V30" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q30" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="77" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B31" s="78" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D31" s="76"/>
       <c r="E31" s="75"/>
       <c r="F31" s="75"/>
-      <c r="G31" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="G31" s="75"/>
       <c r="H31" s="75"/>
       <c r="I31" s="75"/>
       <c r="J31" s="75"/>
       <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
+      <c r="L31" s="76"/>
       <c r="M31" s="75"/>
       <c r="N31" s="76"/>
       <c r="O31" s="75"/>
-      <c r="P31" s="76"/>
+      <c r="P31" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="Q31" s="75"/>
-      <c r="R31" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="S31" s="76"/>
-      <c r="T31" s="75"/>
-      <c r="U31" s="75"/>
-      <c r="V31" s="75"/>
-    </row>
-    <row r="32" spans="1:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="R31" s="75"/>
+      <c r="S31" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="77" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B32" s="78" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C32" s="78" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D32" s="76"/>
       <c r="E32" s="75"/>
       <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="G32" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="75"/>
       <c r="I32" s="75"/>
       <c r="J32" s="75"/>
       <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
+      <c r="L32" s="76"/>
       <c r="M32" s="75"/>
       <c r="N32" s="76"/>
       <c r="O32" s="75"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="S32" s="76"/>
-      <c r="T32" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="U32" s="75"/>
-      <c r="V32" s="75"/>
-    </row>
-    <row r="33" spans="1:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="P32" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q32" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="R32" s="75"/>
+      <c r="S32" s="75"/>
+    </row>
+    <row r="33" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="77" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B33" s="78" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C33" s="78" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D33" s="76"/>
       <c r="E33" s="75"/>
@@ -12248,75 +12109,67 @@
       <c r="I33" s="75"/>
       <c r="J33" s="75"/>
       <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
+      <c r="L33" s="76"/>
       <c r="M33" s="75"/>
       <c r="N33" s="76"/>
-      <c r="O33" s="75"/>
+      <c r="O33" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P33" s="76"/>
-      <c r="Q33" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="75"/>
-      <c r="U33" s="75"/>
-      <c r="V33" s="75"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="77" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C34" s="78" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D34" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="75"/>
       <c r="F34" s="75"/>
-      <c r="G34" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="L34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34" s="75"/>
+      <c r="L34" s="76"/>
       <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="75"/>
+      <c r="N34" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="O34" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P34" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="Q34" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="R34" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="S34" s="76"/>
-      <c r="T34" s="75"/>
-      <c r="U34" s="75"/>
-      <c r="V34" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="77" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B35" s="78" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C35" s="78" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D35" s="76" t="s">
         <v>72</v>
@@ -12331,46 +12184,39 @@
       <c r="H35" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="I35" s="75"/>
       <c r="J35" s="75"/>
       <c r="K35" s="75"/>
-      <c r="L35" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="L35" s="76"/>
       <c r="M35" s="75"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="75"/>
+      <c r="N35" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="O35" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P35" s="76" t="s">
         <v>72</v>
       </c>
       <c r="Q35" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="R35" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="S35" s="76"/>
-      <c r="T35" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="U35" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="V35" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="R35" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="S35" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="77" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C36" s="78" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D36" s="76"/>
       <c r="E36" s="75"/>
@@ -12380,36 +12226,31 @@
       <c r="I36" s="75"/>
       <c r="J36" s="75"/>
       <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
+      <c r="L36" s="76" t="s">
+        <v>72</v>
+      </c>
       <c r="M36" s="75"/>
-      <c r="N36" s="76" t="s">
-        <v>72</v>
-      </c>
+      <c r="N36" s="76"/>
       <c r="O36" s="75"/>
       <c r="P36" s="76"/>
       <c r="Q36" s="75"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="75"/>
-      <c r="U36" s="75"/>
-      <c r="V36" s="75"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="77" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C37" s="78" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D37" s="75"/>
       <c r="E37" s="75"/>
       <c r="F37" s="75"/>
-      <c r="G37" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="G37" s="75"/>
       <c r="H37" s="75"/>
       <c r="I37" s="75"/>
       <c r="J37" s="75"/>
@@ -12418,25 +12259,24 @@
       <c r="M37" s="75"/>
       <c r="N37" s="75"/>
       <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
+      <c r="P37" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="Q37" s="75"/>
-      <c r="R37" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S37" s="76"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="75"/>
-      <c r="V37" s="75"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="R37" s="75"/>
+      <c r="S37" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="77" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B38" s="78" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C38" s="78" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D38" s="75"/>
       <c r="E38" s="75"/>
@@ -12446,37 +12286,34 @@
       <c r="I38" s="75"/>
       <c r="J38" s="75"/>
       <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
+      <c r="L38" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="M38" s="75"/>
       <c r="N38" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="O38" s="75"/>
+      <c r="O38" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P38" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q38" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="R38" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S38" s="76"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="77" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B39" s="78" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C39" s="78" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D39" s="75"/>
       <c r="E39" s="75"/>
@@ -12493,22 +12330,19 @@
       <c r="P39" s="75"/>
       <c r="Q39" s="75"/>
       <c r="R39" s="75"/>
-      <c r="S39" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="T39" s="75"/>
-      <c r="U39" s="75"/>
-      <c r="V39" s="75"/>
-    </row>
-    <row r="40" spans="1:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="S39" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="77" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B40" s="78" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C40" s="78" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D40" s="75"/>
       <c r="E40" s="75"/>
@@ -12521,40 +12355,35 @@
       <c r="H40" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="I40" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="I40" s="75"/>
       <c r="J40" s="75"/>
       <c r="K40" s="75"/>
       <c r="L40" s="75"/>
       <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
+      <c r="N40" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="O40" s="75"/>
       <c r="P40" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S40" s="76"/>
-      <c r="T40" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="U40" s="75"/>
-      <c r="V40" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="Q40" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="77" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B41" s="78" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C41" s="78" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D41" s="75" t="s">
         <v>72</v>
@@ -12564,39 +12393,36 @@
       <c r="G41" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="H41" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="H41" s="75"/>
       <c r="I41" s="75"/>
       <c r="J41" s="75"/>
       <c r="K41" s="75"/>
       <c r="L41" s="75"/>
       <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
+      <c r="N41" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O41" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P41" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q41" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="R41" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S41" s="76"/>
-      <c r="T41" s="75"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="75"/>
-    </row>
-    <row r="42" spans="1:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="77" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B42" s="78" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C42" s="78" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D42" s="75" t="s">
         <v>72</v>
@@ -12606,41 +12432,38 @@
       <c r="G42" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="H42" s="75"/>
       <c r="I42" s="75"/>
       <c r="J42" s="75"/>
       <c r="K42" s="75"/>
       <c r="L42" s="75"/>
       <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
+      <c r="N42" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O42" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="P42" s="75" t="s">
         <v>72</v>
       </c>
       <c r="Q42" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="R42" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S42" s="76"/>
-      <c r="T42" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="U42" s="75"/>
-      <c r="V42" s="75"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="R42" s="75"/>
+      <c r="S42" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="77" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B43" s="78" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C43" s="78" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D43" s="75"/>
       <c r="E43" s="75"/>
@@ -12657,22 +12480,19 @@
       <c r="P43" s="75"/>
       <c r="Q43" s="75"/>
       <c r="R43" s="75"/>
-      <c r="S43" s="76"/>
-      <c r="T43" s="75"/>
-      <c r="U43" s="75"/>
-      <c r="V43" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S43" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="77" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B44" s="78" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C44" s="78" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D44" s="75"/>
       <c r="E44" s="75"/>
@@ -12680,10 +12500,10 @@
       <c r="G44" s="75"/>
       <c r="H44" s="75"/>
       <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="J44" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44" s="75"/>
       <c r="L44" s="75"/>
       <c r="M44" s="75"/>
       <c r="N44" s="75"/>
@@ -12691,29 +12511,24 @@
       <c r="P44" s="75"/>
       <c r="Q44" s="75"/>
       <c r="R44" s="75"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="75"/>
-      <c r="U44" s="75"/>
-      <c r="V44" s="75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S44" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="77" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B45" s="78" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C45" s="78" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D45" s="75"/>
       <c r="E45" s="75"/>
       <c r="F45" s="75"/>
-      <c r="G45" s="75" t="s">
-        <v>72</v>
-      </c>
+      <c r="G45" s="75"/>
       <c r="H45" s="75"/>
       <c r="I45" s="75"/>
       <c r="J45" s="75"/>
@@ -12722,15 +12537,12 @@
       <c r="M45" s="75"/>
       <c r="N45" s="75"/>
       <c r="O45" s="75"/>
-      <c r="P45" s="75"/>
+      <c r="P45" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="Q45" s="75"/>
-      <c r="R45" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="S45" s="76"/>
-      <c r="T45" s="75"/>
-      <c r="U45" s="75"/>
-      <c r="V45" s="75" t="s">
+      <c r="R45" s="75"/>
+      <c r="S45" s="75" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12755,7 +12567,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -12766,7 +12578,7 @@
     <col min="8" max="8" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>434</v>
       </c>
@@ -12774,7 +12586,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
@@ -12784,7 +12596,7 @@
       <c r="C2" s="145"/>
       <c r="D2" s="145"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>109</v>
       </c>
@@ -12810,7 +12622,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>415</v>
       </c>
@@ -12834,7 +12646,7 @@
       </c>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
         <v>416</v>
       </c>
@@ -12856,7 +12668,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
         <v>417</v>
       </c>
@@ -12878,7 +12690,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
         <v>418</v>
       </c>
@@ -12900,7 +12712,7 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
     </row>
-    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
         <v>419</v>
       </c>
@@ -12922,13 +12734,13 @@
       <c r="G9" s="49"/>
       <c r="H9" s="33"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D11" s="40"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D12" s="40"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D13" s="40"/>
     </row>
   </sheetData>
@@ -12958,7 +12770,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -12969,7 +12781,7 @@
     <col min="8" max="8" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>434</v>
       </c>
@@ -12977,7 +12789,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
@@ -12987,7 +12799,7 @@
       <c r="C2" s="145"/>
       <c r="D2" s="145"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>109</v>
       </c>
@@ -13013,7 +12825,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>400</v>
       </c>
@@ -13037,7 +12849,7 @@
       </c>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>401</v>
       </c>
@@ -13061,7 +12873,7 @@
       </c>
       <c r="H6" s="44"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>402</v>
       </c>
@@ -13083,7 +12895,7 @@
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="228" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>403</v>
       </c>
@@ -13107,7 +12919,7 @@
       </c>
       <c r="H8" s="44"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>404</v>
       </c>
@@ -13129,7 +12941,7 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>405</v>
       </c>
@@ -13151,7 +12963,7 @@
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="108" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>406</v>
       </c>
@@ -13175,7 +12987,7 @@
       </c>
       <c r="H11" s="44"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="108" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>407</v>
       </c>
@@ -13199,7 +13011,7 @@
       </c>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>408</v>
       </c>
@@ -13221,7 +13033,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="228" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>409</v>
       </c>
@@ -13245,7 +13057,7 @@
       </c>
       <c r="H14" s="44"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>410</v>
       </c>
@@ -13267,7 +13079,7 @@
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>411</v>
       </c>
@@ -13289,13 +13101,13 @@
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="40"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="40"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="40"/>
     </row>
   </sheetData>
@@ -13325,7 +13137,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -13336,7 +13148,7 @@
     <col min="8" max="8" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>434</v>
       </c>
@@ -13344,7 +13156,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
@@ -13354,7 +13166,7 @@
       <c r="C2" s="145"/>
       <c r="D2" s="145"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>109</v>
       </c>
@@ -13380,7 +13192,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
         <v>412</v>
       </c>
@@ -13402,7 +13214,7 @@
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
         <v>413</v>
       </c>
@@ -13424,7 +13236,7 @@
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="121.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
         <v>414</v>
       </c>
@@ -13446,13 +13258,13 @@
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D9" s="40"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="40"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D11" s="40"/>
     </row>
   </sheetData>
@@ -13482,7 +13294,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -13494,25 +13306,25 @@
     <col min="8" max="8" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>434</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C2" s="146"/>
       <c r="D2" s="146"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>109</v>
       </c>
@@ -13538,112 +13350,112 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="87" t="s">
+        <v>699</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>700</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>701</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>702</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="F5" s="35" t="s">
         <v>704</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>705</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>706</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>707</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>708</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>709</v>
       </c>
       <c r="G5" s="87"/>
       <c r="H5" s="87"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="87" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G6" s="87"/>
       <c r="H6" s="87"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G7" s="86"/>
       <c r="H7" s="87"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="87" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C8" s="86" t="s">
+        <v>716</v>
+      </c>
+      <c r="D8" s="86" t="s">
         <v>721</v>
       </c>
-      <c r="D8" s="86" t="s">
-        <v>726</v>
-      </c>
       <c r="E8" s="36" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G8" s="86"/>
       <c r="H8" s="87"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="189" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A9" s="87" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B9" s="86" t="s">
         <v>143</v>
       </c>
       <c r="C9" s="86" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="G9" s="87"/>
       <c r="H9" s="87"/>
@@ -13675,7 +13487,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" style="92" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="92" customWidth="1"/>
@@ -13688,25 +13500,25 @@
     <col min="9" max="16384" width="9" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>434</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.649999999999999" x14ac:dyDescent="0.5">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C2" s="146"/>
       <c r="D2" s="146"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>109</v>
       </c>
@@ -13732,71 +13544,71 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="89" t="s">
+        <v>723</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>724</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>725</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>726</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>727</v>
+      </c>
+      <c r="F5" s="35" t="s">
         <v>728</v>
-      </c>
-      <c r="B5" s="88" t="s">
-        <v>729</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>730</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>731</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>732</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>733</v>
       </c>
       <c r="G5" s="89"/>
       <c r="H5" s="89"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="89" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G6" s="89"/>
       <c r="H6" s="89"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" s="89" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B7" s="88"/>
       <c r="C7" s="88" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="G7" s="88"/>
       <c r="H7" s="89"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
@@ -13816,50 +13628,56 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <InformationAudience xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">NHS Digital</InformationAudience>
-    <SecurityClassification xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">Official</SecurityClassification>
-    <InformationVersion xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
-    <ApprovalDate xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">2017-09-01T09:23:36+00:00</ApprovalDate>
-    <ApproverName xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
-    <i8502cb9d1b74c4f9e1ea45824336350 xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </i8502cb9d1b74c4f9e1ea45824336350>
-    <SecurityDescriptor xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
-    <InformationSource xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
-    <InformationStatus xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">Draft</InformationStatus>
-    <AuthoredDate xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">2017-09-01T09:23:36+00:00</AuthoredDate>
-    <TaxCatchAll xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
-      <Value>19</Value>
-    </TaxCatchAll>
-    <AuthorName xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </AuthorName>
-    <e076e489fa624670a6d5030aa6510568 xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Process</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">68849af9-34a8-4c7c-afd8-4eccd1049aa6</TermId>
-        </TermInfo>
-      </Terms>
-    </e076e489fa624670a6d5030aa6510568>
-    <_dlc_ExpireDateSaved xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2025-09-01T09:23:36+00:00</_dlc_ExpireDate>
-    <_dlc_DocId xmlns="fd99328b-ad0f-4a07-bc01-42c4f74e2fcd">NHSD-2079-2066917125-6086</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="fd99328b-ad0f-4a07-bc01-42c4f74e2fcd">
-      <Url>https://hscic365.sharepoint.com/sites/GPConnect/_layouts/15/DocIdRedir.aspx?ID=NHSD-2079-2066917125-6086</Url>
-      <Description>NHSD-2079-2066917125-6086</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>NHSD Portfolio Document (8 years)</p:Name>
+  <p:Description/>
+  <p:Statement>This document implements 8 years retention from Authored Date</p:Statement>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7|-2054357789" UniqueId="c9a81329-e124-4cbc-9b7a-8099d020f266">
+      <p:Name>Retention</p:Name>
+      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
+      <p:CustomData>
+        <Schedules nextStageId="3">
+          <Schedule type="Default">
+            <stages>
+              <data stageId="1">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>8</number>
+                  <property>AuthoredDate</property>
+                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.Skip"/>
+              </data>
+              <data stageId="2">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>22</number>
+                  <property>AuthoredDate</property>
+                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.MoveToRecycleBin"/>
+              </data>
+            </stages>
+          </Schedule>
+        </Schedules>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="NHSD Portfolio Document (8 years)" ma:contentTypeID="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7004F50C1BCCACB1449A1E6F21B442043ED" ma:contentTypeVersion="4" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="a1c15b439565651e633ab854196fb81e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xmlns:ns3="fd99328b-ad0f-4a07-bc01-42c4f74e2fcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60d1fb537fdff0e2362399e67e746ed8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14162,15 +13980,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="bb72b7f4-c981-47a4-a26e-043e4b78ebf3" ContentTypeId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7" PreviousValue="false"/>
@@ -14282,65 +14091,66 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>NHSD Portfolio Document (8 years)</p:Name>
-  <p:Description/>
-  <p:Statement>This document implements 8 years retention from Authored Date</p:Statement>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7|-2054357789" UniqueId="c9a81329-e124-4cbc-9b7a-8099d020f266">
-      <p:Name>Retention</p:Name>
-      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
-      <p:CustomData>
-        <Schedules nextStageId="3">
-          <Schedule type="Default">
-            <stages>
-              <data stageId="1">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>8</number>
-                  <property>AuthoredDate</property>
-                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.Skip"/>
-              </data>
-              <data stageId="2">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>22</number>
-                  <property>AuthoredDate</property>
-                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.MoveToRecycleBin"/>
-              </data>
-            </stages>
-          </Schedule>
-        </Schedules>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <InformationAudience xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">NHS Digital</InformationAudience>
+    <SecurityClassification xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">Official</SecurityClassification>
+    <InformationVersion xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
+    <ApprovalDate xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">2017-09-01T09:23:36+00:00</ApprovalDate>
+    <ApproverName xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
+    <i8502cb9d1b74c4f9e1ea45824336350 xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </i8502cb9d1b74c4f9e1ea45824336350>
+    <SecurityDescriptor xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
+    <InformationSource xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
+    <InformationStatus xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">Draft</InformationStatus>
+    <AuthoredDate xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">2017-09-01T09:23:36+00:00</AuthoredDate>
+    <TaxCatchAll xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
+      <Value>19</Value>
+    </TaxCatchAll>
+    <AuthorName xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </AuthorName>
+    <e076e489fa624670a6d5030aa6510568 xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Process</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">68849af9-34a8-4c7c-afd8-4eccd1049aa6</TermId>
+        </TermInfo>
+      </Terms>
+    </e076e489fa624670a6d5030aa6510568>
+    <_dlc_ExpireDateSaved xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2025-09-01T09:23:36+00:00</_dlc_ExpireDate>
+    <_dlc_DocId xmlns="fd99328b-ad0f-4a07-bc01-42c4f74e2fcd">NHSD-2079-2066917125-6086</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="fd99328b-ad0f-4a07-bc01-42c4f74e2fcd">
+      <Url>https://hscic365.sharepoint.com/sites/GPConnect/_layouts/15/DocIdRedir.aspx?ID=NHSD-2079-2066917125-6086</Url>
+      <Description>NHSD-2079-2066917125-6086</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7F8168-C2C9-4934-8827-829F56CA9998}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19405931-A81E-40EA-8A05-F46780F42396}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5668c8bc-6c30-45e9-80ca-5109d4270dfd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fd99328b-ad0f-4a07-bc01-42c4f74e2fcd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="office.server.policy"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC01061-A2CF-4191-B67F-29A55016463D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{135498CA-7A93-4C61-9FF7-49B80243C8F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14356,14 +14166,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC01061-A2CF-4191-B67F-29A55016463D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14385,9 +14187,19 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19405931-A81E-40EA-8A05-F46780F42396}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7F8168-C2C9-4934-8827-829F56CA9998}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="fd99328b-ad0f-4a07-bc01-42c4f74e2fcd"/>
+    <ds:schemaRef ds:uri="5668c8bc-6c30-45e9-80ca-5109d4270dfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>